--- a/data/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Wiesbaden First Pass Acceptance.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2506966-B26C-4BC9-B8BF-5D6B5A84BED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F2868-C043-4F1C-9128-809F7B28812B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="165" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="19824" yWindow="-4344" windowWidth="34560" windowHeight="18744" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1710</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1775</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11345" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11633" uniqueCount="799">
   <si>
     <t>SQA</t>
   </si>
@@ -2411,6 +2411,27 @@
   </si>
   <si>
     <t>Release 101</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Release 1.2</t>
+  </si>
+  <si>
+    <t>WI_C 34</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>WI_C 36</t>
+  </si>
+  <si>
+    <t>WI_C 37</t>
+  </si>
+  <si>
+    <t>WI_L27</t>
   </si>
 </sst>
 </file>
@@ -3281,22 +3302,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1730"/>
+  <dimension ref="A1:J1775"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1731" sqref="H1731"/>
+      <pane ySplit="1" topLeftCell="A1733" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1775" sqref="I1775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
     <col min="10" max="10" width="72.140625" bestFit="1" customWidth="1"/>
@@ -47630,10 +47651,10 @@
         <v>757</v>
       </c>
       <c r="D1603" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E1603" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1603" s="5" t="s">
         <v>23</v>
@@ -47642,7 +47663,7 @@
         <v>31</v>
       </c>
       <c r="H1603" s="4">
-        <v>44313</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="1604" spans="1:9" x14ac:dyDescent="0.25">
@@ -48065,32 +48086,29 @@
       </c>
     </row>
     <row r="1620" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1620" t="s">
+      <c r="A1620" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1620" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1620" t="s">
-        <v>314</v>
+        <v>665</v>
+      </c>
+      <c r="C1620" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1620" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1620">
-        <v>1</v>
-      </c>
-      <c r="F1620" s="5" t="s">
-        <v>767</v>
+        <v>62</v>
+      </c>
+      <c r="E1620" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>756</v>
       </c>
       <c r="G1620" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1620" s="4">
-        <v>44315</v>
-      </c>
-      <c r="I1620" t="s">
-        <v>15</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="1621" spans="1:9" x14ac:dyDescent="0.25">
@@ -48104,20 +48122,23 @@
         <v>314</v>
       </c>
       <c r="D1621" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E1621">
         <v>1</v>
       </c>
-      <c r="F1621" s="7" t="s">
-        <v>704</v>
+      <c r="F1621" s="5" t="s">
+        <v>767</v>
       </c>
       <c r="G1621" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1621" s="4">
         <v>44315</v>
       </c>
+      <c r="I1621" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
@@ -48136,7 +48157,7 @@
         <v>1</v>
       </c>
       <c r="F1622" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G1622" t="s">
         <v>31</v>
@@ -48162,7 +48183,7 @@
         <v>1</v>
       </c>
       <c r="F1623" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G1623" t="s">
         <v>31</v>
@@ -48188,7 +48209,7 @@
         <v>1</v>
       </c>
       <c r="F1624" s="7" t="s">
-        <v>769</v>
+        <v>706</v>
       </c>
       <c r="G1624" t="s">
         <v>31</v>
@@ -48214,7 +48235,7 @@
         <v>1</v>
       </c>
       <c r="F1625" s="7" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
       <c r="G1625" t="s">
         <v>31</v>
@@ -48240,7 +48261,7 @@
         <v>1</v>
       </c>
       <c r="F1626" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G1626" t="s">
         <v>31</v>
@@ -48266,7 +48287,7 @@
         <v>1</v>
       </c>
       <c r="F1627" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G1627" t="s">
         <v>31</v>
@@ -48292,7 +48313,7 @@
         <v>1</v>
       </c>
       <c r="F1628" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G1628" t="s">
         <v>31</v>
@@ -48318,7 +48339,7 @@
         <v>1</v>
       </c>
       <c r="F1629" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G1629" t="s">
         <v>31</v>
@@ -48344,7 +48365,7 @@
         <v>1</v>
       </c>
       <c r="F1630" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G1630" t="s">
         <v>31</v>
@@ -48370,7 +48391,7 @@
         <v>1</v>
       </c>
       <c r="F1631" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G1631" t="s">
         <v>31</v>
@@ -48396,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="F1632" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G1632" t="s">
         <v>31</v>
@@ -48422,7 +48443,7 @@
         <v>1</v>
       </c>
       <c r="F1633" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G1633" t="s">
         <v>31</v>
@@ -48448,7 +48469,7 @@
         <v>1</v>
       </c>
       <c r="F1634" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G1634" t="s">
         <v>31</v>
@@ -48474,17 +48495,14 @@
         <v>1</v>
       </c>
       <c r="F1635" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G1635" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1635" s="4">
         <v>44315</v>
       </c>
-      <c r="I1635" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
@@ -48503,14 +48521,17 @@
         <v>1</v>
       </c>
       <c r="F1636" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G1636" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1636" s="4">
         <v>44315</v>
       </c>
+      <c r="I1636" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
@@ -48529,36 +48550,33 @@
         <v>1</v>
       </c>
       <c r="F1637" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G1637" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1637" s="4">
         <v>44315</v>
       </c>
-      <c r="I1637" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1638" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1638" s="5" t="s">
+      <c r="A1638" t="s">
         <v>2</v>
       </c>
       <c r="B1638" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="C1638" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>314</v>
       </c>
       <c r="D1638" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1638" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1638" s="5" t="s">
-        <v>766</v>
+        <v>60</v>
+      </c>
+      <c r="E1638">
+        <v>1</v>
+      </c>
+      <c r="F1638" s="7" t="s">
+        <v>719</v>
       </c>
       <c r="G1638" t="s">
         <v>30</v>
@@ -48604,51 +48622,54 @@
         <v>2</v>
       </c>
       <c r="B1640" s="5" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="C1640" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1640" t="s">
-        <v>669</v>
+        <v>56</v>
       </c>
       <c r="E1640" s="5">
         <v>1</v>
       </c>
       <c r="F1640" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="G1640" s="5" t="s">
-        <v>29</v>
+        <v>766</v>
+      </c>
+      <c r="G1640" t="s">
+        <v>30</v>
       </c>
       <c r="H1640" s="4">
         <v>44315</v>
       </c>
+      <c r="I1640" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1641" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1641" s="5" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="C1641" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1641" t="s">
-        <v>62</v>
+        <v>669</v>
       </c>
       <c r="E1641" s="5">
         <v>1</v>
       </c>
-      <c r="F1641" t="s">
-        <v>756</v>
-      </c>
-      <c r="G1641" t="s">
-        <v>31</v>
+      <c r="F1641" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1641" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1641" s="4">
-        <v>44314</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="1642" spans="1:9" x14ac:dyDescent="0.25">
@@ -48942,28 +48963,28 @@
     </row>
     <row r="1653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1653" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1653" s="5" t="s">
-        <v>315</v>
+        <v>1</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>772</v>
       </c>
       <c r="C1653" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
       <c r="D1653" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E1653">
-        <v>2</v>
-      </c>
-      <c r="F1653" s="7" t="s">
-        <v>704</v>
+        <v>1</v>
+      </c>
+      <c r="F1653" t="s">
+        <v>477</v>
       </c>
       <c r="G1653" t="s">
         <v>31</v>
       </c>
       <c r="H1653" s="4">
-        <v>44319</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="1654" spans="1:9" x14ac:dyDescent="0.25">
@@ -48977,13 +48998,13 @@
         <v>314</v>
       </c>
       <c r="D1654" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1654">
-        <v>2</v>
-      </c>
-      <c r="F1654" s="7" t="s">
-        <v>707</v>
+        <v>1</v>
+      </c>
+      <c r="F1654" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1654" t="s">
         <v>31</v>
@@ -49003,13 +49024,13 @@
         <v>314</v>
       </c>
       <c r="D1655" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="E1655">
-        <v>2</v>
-      </c>
-      <c r="F1655" s="7" t="s">
-        <v>708</v>
+        <v>1</v>
+      </c>
+      <c r="F1655" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1655" t="s">
         <v>31</v>
@@ -49035,7 +49056,7 @@
         <v>2</v>
       </c>
       <c r="F1656" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G1656" t="s">
         <v>31</v>
@@ -49061,7 +49082,7 @@
         <v>2</v>
       </c>
       <c r="F1657" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G1657" t="s">
         <v>31</v>
@@ -49087,7 +49108,7 @@
         <v>2</v>
       </c>
       <c r="F1658" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G1658" t="s">
         <v>31</v>
@@ -49113,7 +49134,7 @@
         <v>2</v>
       </c>
       <c r="F1659" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G1659" t="s">
         <v>31</v>
@@ -49139,17 +49160,14 @@
         <v>2</v>
       </c>
       <c r="F1660" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G1660" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1660" s="4">
         <v>44319</v>
       </c>
-      <c r="I1660" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
@@ -49165,13 +49183,13 @@
         <v>59</v>
       </c>
       <c r="E1661">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1661" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G1661" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1661" s="4">
         <v>44319</v>
@@ -49194,7 +49212,7 @@
         <v>2</v>
       </c>
       <c r="F1662" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G1662" t="s">
         <v>31</v>
@@ -49220,14 +49238,17 @@
         <v>2</v>
       </c>
       <c r="F1663" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G1663" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1663" s="4">
         <v>44319</v>
       </c>
+      <c r="I1663" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
@@ -49243,13 +49264,13 @@
         <v>59</v>
       </c>
       <c r="E1664">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1664" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G1664" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1664" s="4">
         <v>44319</v>
@@ -49266,13 +49287,13 @@
         <v>314</v>
       </c>
       <c r="D1665" t="s">
-        <v>301</v>
+        <v>59</v>
       </c>
       <c r="E1665">
-        <v>1</v>
-      </c>
-      <c r="F1665" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F1665" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="G1665" t="s">
         <v>31</v>
@@ -49292,13 +49313,13 @@
         <v>314</v>
       </c>
       <c r="D1666" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1666">
-        <v>1</v>
-      </c>
-      <c r="F1666" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F1666" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="G1666" t="s">
         <v>31</v>
@@ -49308,25 +49329,25 @@
       </c>
     </row>
     <row r="1667" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1667" s="5" t="s">
+      <c r="A1667" t="s">
         <v>2</v>
       </c>
       <c r="B1667" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1667" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>314</v>
       </c>
       <c r="D1667" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1667" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1667" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="G1667" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1667">
+        <v>2</v>
+      </c>
+      <c r="F1667" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1667" t="s">
         <v>31</v>
       </c>
       <c r="H1667" s="4">
@@ -49338,22 +49359,22 @@
         <v>2</v>
       </c>
       <c r="B1668" s="5" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="C1668" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1668" t="s">
-        <v>63</v>
+        <v>666</v>
       </c>
       <c r="E1668" s="5">
         <v>1</v>
       </c>
       <c r="F1668" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1668" t="s">
-        <v>29</v>
+        <v>755</v>
+      </c>
+      <c r="G1668" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1668" s="4">
         <v>44319</v>
@@ -49396,7 +49417,7 @@
         <v>85</v>
       </c>
       <c r="D1670" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1670" s="5">
         <v>1</v>
@@ -49405,10 +49426,10 @@
         <v>23</v>
       </c>
       <c r="G1670" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1670" s="4">
-        <v>44321</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="1671" spans="1:9" x14ac:dyDescent="0.25">
@@ -49416,13 +49437,13 @@
         <v>2</v>
       </c>
       <c r="B1671" s="5" t="s">
-        <v>665</v>
+        <v>765</v>
       </c>
       <c r="C1671" s="5" t="s">
-        <v>85</v>
+        <v>757</v>
       </c>
       <c r="D1671" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E1671" s="5">
         <v>1</v>
@@ -49434,7 +49455,7 @@
         <v>31</v>
       </c>
       <c r="H1671" s="4">
-        <v>44321</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="1672" spans="1:9" x14ac:dyDescent="0.25">
@@ -49442,25 +49463,28 @@
         <v>2</v>
       </c>
       <c r="B1672" s="5" t="s">
-        <v>559</v>
+        <v>765</v>
       </c>
       <c r="C1672" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D1672" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1672" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1672" s="7" t="s">
-        <v>779</v>
+        <v>757</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1672" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1672" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1672" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1672" s="4">
-        <v>44320</v>
+        <v>44327</v>
+      </c>
+      <c r="I1672" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1673" spans="1:9" x14ac:dyDescent="0.25">
@@ -49474,19 +49498,22 @@
         <v>757</v>
       </c>
       <c r="D1673" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1673" s="5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E1673" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="F1673" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1673" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1673" s="4">
-        <v>44320</v>
+        <v>44327</v>
+      </c>
+      <c r="I1673" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1674" spans="1:9" x14ac:dyDescent="0.25">
@@ -49500,19 +49527,19 @@
         <v>757</v>
       </c>
       <c r="D1674" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1674" s="5">
         <v>1</v>
       </c>
       <c r="F1674" s="5" t="s">
-        <v>780</v>
+        <v>23</v>
       </c>
       <c r="G1674" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1674" s="4">
-        <v>44320</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
@@ -49526,13 +49553,13 @@
         <v>757</v>
       </c>
       <c r="D1675" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E1675" s="5">
         <v>1</v>
       </c>
       <c r="F1675" s="5" t="s">
-        <v>781</v>
+        <v>23</v>
       </c>
       <c r="G1675" t="s">
         <v>31</v>
@@ -49552,7 +49579,7 @@
         <v>757</v>
       </c>
       <c r="D1676" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E1676" s="5">
         <v>1</v>
@@ -49561,10 +49588,13 @@
         <v>23</v>
       </c>
       <c r="G1676" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1676" s="4">
-        <v>44320</v>
+        <v>44344</v>
+      </c>
+      <c r="I1676" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1677" spans="1:9" x14ac:dyDescent="0.25">
@@ -49572,19 +49602,19 @@
         <v>2</v>
       </c>
       <c r="B1677" s="5" t="s">
-        <v>765</v>
+        <v>559</v>
       </c>
       <c r="C1677" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="D1677" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1677" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1677" s="5">
         <v>1</v>
       </c>
-      <c r="F1677" s="5" t="s">
-        <v>782</v>
+      <c r="F1677" s="7" t="s">
+        <v>779</v>
       </c>
       <c r="G1677" t="s">
         <v>31</v>
@@ -49598,21 +49628,21 @@
         <v>2</v>
       </c>
       <c r="B1678" s="5" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="C1678" s="5" t="s">
-        <v>757</v>
+        <v>85</v>
       </c>
       <c r="D1678" t="s">
-        <v>7</v>
+        <v>667</v>
       </c>
       <c r="E1678" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1678" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1678" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1678" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1678" s="4">
@@ -49624,25 +49654,25 @@
         <v>2</v>
       </c>
       <c r="B1679" s="5" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="C1679" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1679" t="s">
-        <v>667</v>
+        <v>65</v>
       </c>
       <c r="E1679" s="5">
         <v>1</v>
       </c>
       <c r="F1679" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="G1679" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1679" t="s">
         <v>31</v>
       </c>
       <c r="H1679" s="4">
-        <v>44320</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1680" spans="1:9" x14ac:dyDescent="0.25">
@@ -49650,13 +49680,13 @@
         <v>2</v>
       </c>
       <c r="B1680" s="5" t="s">
-        <v>765</v>
+        <v>665</v>
       </c>
       <c r="C1680" s="5" t="s">
-        <v>757</v>
+        <v>85</v>
       </c>
       <c r="D1680" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E1680" s="5">
         <v>1</v>
@@ -49665,146 +49695,140 @@
         <v>23</v>
       </c>
       <c r="G1680" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1680" s="4">
-        <v>44322</v>
-      </c>
-      <c r="I1680" t="s">
-        <v>15</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1681" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1681" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1681" s="5" t="s">
-        <v>649</v>
+      <c r="A1681" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>772</v>
       </c>
       <c r="C1681" t="s">
-        <v>784</v>
+        <v>442</v>
       </c>
       <c r="D1681" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1681" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1681" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="E1681">
+        <v>1</v>
+      </c>
+      <c r="F1681" t="s">
+        <v>792</v>
       </c>
       <c r="G1681" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1681" s="4">
-        <v>44322</v>
-      </c>
-      <c r="I1681" t="s">
-        <v>15</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1682" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1682" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1682" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="C1682" s="5" t="s">
-        <v>85</v>
+      <c r="A1682" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>442</v>
       </c>
       <c r="D1682" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1682" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1682" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="G1682" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1682">
+        <v>1</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1682" t="s">
         <v>31</v>
       </c>
       <c r="H1682" s="4">
-        <v>44326</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1683" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1683" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1683" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C1683" s="5" t="s">
-        <v>757</v>
+      <c r="A1683" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>442</v>
       </c>
       <c r="D1683" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1683" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1683" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="E1683">
+        <v>1</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>775</v>
       </c>
       <c r="G1683" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1683" s="4">
-        <v>44326</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1684" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1684" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1684" s="5" t="s">
-        <v>649</v>
+      <c r="A1684" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>772</v>
       </c>
       <c r="C1684" t="s">
-        <v>784</v>
+        <v>442</v>
       </c>
       <c r="D1684" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1684" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1684" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E1684">
+        <v>1</v>
+      </c>
+      <c r="F1684" t="s">
+        <v>775</v>
       </c>
       <c r="G1684" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1684" s="4">
-        <v>44326</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1685" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1685" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1685" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="C1685" s="5" t="s">
-        <v>85</v>
+      <c r="A1685" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>442</v>
       </c>
       <c r="D1685" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1685" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1685" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="G1685" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1685">
+        <v>1</v>
+      </c>
+      <c r="F1685" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1685" t="s">
         <v>31</v>
       </c>
       <c r="H1685" s="4">
-        <v>44326</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="1686" spans="1:9" x14ac:dyDescent="0.25">
@@ -49812,13 +49836,13 @@
         <v>2</v>
       </c>
       <c r="B1686" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1686" t="s">
-        <v>784</v>
+        <v>765</v>
+      </c>
+      <c r="C1686" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="D1686" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E1686" s="5">
         <v>1</v>
@@ -49827,88 +49851,97 @@
         <v>23</v>
       </c>
       <c r="G1686" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1686" s="4">
-        <v>44323</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="1687" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1687" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1687" s="5" t="s">
-        <v>649</v>
+      <c r="A1687" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>793</v>
       </c>
       <c r="C1687" t="s">
-        <v>784</v>
+        <v>268</v>
       </c>
       <c r="D1687" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1687" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1687" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1687">
+        <v>1</v>
+      </c>
+      <c r="F1687" t="s">
         <v>23</v>
       </c>
       <c r="G1687" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1687" s="4">
-        <v>44326</v>
+        <v>44322</v>
+      </c>
+      <c r="I1687" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1688" s="5" t="s">
-        <v>624</v>
+        <v>1</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>793</v>
       </c>
       <c r="C1688" t="s">
-        <v>625</v>
+        <v>268</v>
       </c>
       <c r="D1688" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E1688">
         <v>1</v>
       </c>
-      <c r="F1688" s="7" t="s">
+      <c r="F1688" t="s">
         <v>23</v>
       </c>
       <c r="G1688" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1688" s="4">
-        <v>44323</v>
+        <v>44322</v>
+      </c>
+      <c r="I1688" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1689" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1689" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1689" s="5" t="s">
-        <v>612</v>
+      <c r="A1689" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>793</v>
       </c>
       <c r="C1689" t="s">
-        <v>611</v>
+        <v>268</v>
       </c>
       <c r="D1689" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1689" s="5">
+        <v>13</v>
+      </c>
+      <c r="E1689">
         <v>1</v>
       </c>
       <c r="F1689" t="s">
         <v>23</v>
       </c>
       <c r="G1689" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1689" s="4">
-        <v>44327</v>
+        <v>44322</v>
+      </c>
+      <c r="I1689" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1690" spans="1:9" x14ac:dyDescent="0.25">
@@ -49916,39 +49949,42 @@
         <v>2</v>
       </c>
       <c r="B1690" s="5" t="s">
-        <v>787</v>
+        <v>649</v>
       </c>
       <c r="C1690" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D1690" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E1690" s="5">
         <v>1</v>
       </c>
-      <c r="F1690" t="s">
+      <c r="F1690" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1690" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1690" s="4">
-        <v>44327</v>
+        <v>44322</v>
+      </c>
+      <c r="I1690" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1691" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1691" t="s">
+      <c r="A1691" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1691" s="5" t="s">
         <v>649</v>
       </c>
       <c r="C1691" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="D1691" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1691" s="5">
         <v>1</v>
@@ -49956,83 +49992,77 @@
       <c r="F1691" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G1691" s="5" t="s">
-        <v>30</v>
+      <c r="G1691" t="s">
+        <v>31</v>
       </c>
       <c r="H1691" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1691" t="s">
-        <v>17</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="1692" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1692" s="5" t="s">
+      <c r="A1692" t="s">
         <v>2</v>
       </c>
       <c r="B1692" s="5" t="s">
-        <v>787</v>
+        <v>624</v>
       </c>
       <c r="C1692" t="s">
-        <v>786</v>
+        <v>625</v>
       </c>
       <c r="D1692" t="s">
         <v>12</v>
       </c>
-      <c r="E1692" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1692" t="s">
+      <c r="E1692">
+        <v>1</v>
+      </c>
+      <c r="F1692" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G1692" t="s">
         <v>31</v>
       </c>
       <c r="H1692" s="4">
-        <v>44327</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="1693" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1693" t="s">
+      <c r="A1693" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1693" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1693" t="s">
-        <v>758</v>
+        <v>765</v>
+      </c>
+      <c r="C1693" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="D1693" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E1693" s="5">
         <v>1</v>
       </c>
       <c r="F1693" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1693" s="5" t="s">
-        <v>30</v>
+        <v>780</v>
+      </c>
+      <c r="G1693" t="s">
+        <v>31</v>
       </c>
       <c r="H1693" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1693" t="s">
-        <v>15</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="1694" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1694" t="s">
+      <c r="A1694" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1694" s="5" t="s">
         <v>649</v>
       </c>
       <c r="C1694" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="D1694" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E1694" s="5">
         <v>1</v>
@@ -50040,14 +50070,11 @@
       <c r="F1694" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G1694" s="5" t="s">
-        <v>30</v>
+      <c r="G1694" t="s">
+        <v>29</v>
       </c>
       <c r="H1694" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1694" t="s">
-        <v>15</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="1695" spans="1:9" x14ac:dyDescent="0.25">
@@ -50055,28 +50082,25 @@
         <v>2</v>
       </c>
       <c r="B1695" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C1695" s="5" t="s">
-        <v>757</v>
+        <v>649</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>784</v>
       </c>
       <c r="D1695" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1695" s="8" t="s">
-        <v>253</v>
+        <v>12</v>
+      </c>
+      <c r="E1695" s="5">
+        <v>1</v>
       </c>
       <c r="F1695" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1695" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1695" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1695" t="s">
-        <v>17</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="1696" spans="1:9" x14ac:dyDescent="0.25">
@@ -50084,28 +50108,25 @@
         <v>2</v>
       </c>
       <c r="B1696" s="5" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="C1696" s="5" t="s">
-        <v>757</v>
+        <v>85</v>
       </c>
       <c r="D1696" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1696" s="8" t="s">
-        <v>254</v>
+        <v>666</v>
+      </c>
+      <c r="E1696" s="5">
+        <v>1</v>
       </c>
       <c r="F1696" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1696" t="s">
-        <v>30</v>
+        <v>783</v>
+      </c>
+      <c r="G1696" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1696" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1696" t="s">
-        <v>17</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="1697" spans="1:9" x14ac:dyDescent="0.25">
@@ -50113,25 +50134,25 @@
         <v>2</v>
       </c>
       <c r="B1697" s="5" t="s">
-        <v>765</v>
+        <v>665</v>
       </c>
       <c r="C1697" s="5" t="s">
-        <v>757</v>
+        <v>85</v>
       </c>
       <c r="D1697" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E1697" s="5">
         <v>1</v>
       </c>
       <c r="F1697" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1697" t="s">
-        <v>29</v>
+        <v>785</v>
+      </c>
+      <c r="G1697" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1697" s="4">
-        <v>44328</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="1698" spans="1:9" x14ac:dyDescent="0.25">
@@ -50139,28 +50160,25 @@
         <v>2</v>
       </c>
       <c r="B1698" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1698" t="s">
-        <v>786</v>
+        <v>765</v>
+      </c>
+      <c r="C1698" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="D1698" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1698" s="5">
         <v>1</v>
       </c>
-      <c r="F1698" t="s">
-        <v>23</v>
+      <c r="F1698" s="5" t="s">
+        <v>781</v>
       </c>
       <c r="G1698" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1698" s="4">
-        <v>44328</v>
-      </c>
-      <c r="I1698" t="s">
-        <v>15</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="1699" spans="1:9" x14ac:dyDescent="0.25">
@@ -50168,28 +50186,25 @@
         <v>2</v>
       </c>
       <c r="B1699" s="5" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="C1699" s="5" t="s">
-        <v>85</v>
+        <v>757</v>
       </c>
       <c r="D1699" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E1699" s="5">
         <v>1</v>
       </c>
-      <c r="F1699" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1699" s="5" t="s">
-        <v>30</v>
+      <c r="F1699" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1699" t="s">
+        <v>31</v>
       </c>
       <c r="H1699" s="4">
-        <v>44334</v>
-      </c>
-      <c r="I1699" t="s">
-        <v>15</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="1700" spans="1:9" x14ac:dyDescent="0.25">
@@ -50197,265 +50212,286 @@
         <v>2</v>
       </c>
       <c r="B1700" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1700" s="5" t="s">
-        <v>85</v>
+        <v>612</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>611</v>
       </c>
       <c r="D1700" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1700" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1700" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1700" s="4">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1701">
+        <v>1</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1701" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1701" s="4">
+        <v>44327</v>
+      </c>
+      <c r="I1701" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1702" t="s">
         <v>44</v>
       </c>
-      <c r="E1700" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1700" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1700" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1700" s="4">
-        <v>44336</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1701" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1701" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1701" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1701" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1701" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1701" t="s">
-        <v>455</v>
-      </c>
-      <c r="G1701" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1701" s="4">
-        <v>44336</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1702" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1702" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1702" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1702" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1702" s="5">
+      <c r="E1702">
         <v>1</v>
       </c>
       <c r="F1702" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1702" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>30</v>
       </c>
       <c r="H1702" s="4">
-        <v>44336</v>
+        <v>44327</v>
+      </c>
+      <c r="I1702" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1703" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1703" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1703" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1703" s="5" t="s">
-        <v>85</v>
+      <c r="A1703" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>268</v>
       </c>
       <c r="D1703" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1703" s="5">
+        <v>9</v>
+      </c>
+      <c r="E1703">
         <v>1</v>
       </c>
       <c r="F1703" t="s">
-        <v>461</v>
-      </c>
-      <c r="G1703" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>30</v>
       </c>
       <c r="H1703" s="4">
-        <v>44336</v>
+        <v>44327</v>
+      </c>
+      <c r="I1703" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1704" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1704" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1704" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1704" s="5" t="s">
-        <v>85</v>
+      <c r="A1704" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>268</v>
       </c>
       <c r="D1704" t="s">
         <v>66</v>
       </c>
-      <c r="E1704" s="5">
+      <c r="E1704">
         <v>1</v>
       </c>
       <c r="F1704" t="s">
         <v>23</v>
       </c>
-      <c r="G1704" s="5" t="s">
-        <v>31</v>
+      <c r="G1704" t="s">
+        <v>30</v>
       </c>
       <c r="H1704" s="4">
-        <v>44335</v>
+        <v>44327</v>
+      </c>
+      <c r="I1704" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1705" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1705" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1705" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1705" s="5" t="s">
-        <v>85</v>
+      <c r="A1705" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>268</v>
       </c>
       <c r="D1705" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1705">
+        <v>1</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1705" s="4">
+        <v>44327</v>
+      </c>
+      <c r="I1705" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1706">
+        <v>1</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1706" s="4">
+        <v>44327</v>
+      </c>
+      <c r="I1706" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1707" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1707" t="s">
         <v>10</v>
       </c>
-      <c r="E1705" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1705" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1705" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1705" s="4">
-        <v>44335</v>
-      </c>
-      <c r="I1705" t="s">
+      <c r="E1707" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1707" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1707" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1707" s="4">
+        <v>44327</v>
+      </c>
+      <c r="I1707" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1706" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1706" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1706" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1706" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1706" t="s">
+    <row r="1708" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1708" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1708" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1708" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1708" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1708" s="4">
+        <v>44327</v>
+      </c>
+      <c r="I1708" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1709" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1709" t="s">
         <v>59</v>
       </c>
-      <c r="E1706" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1706" t="s">
-        <v>789</v>
-      </c>
-      <c r="G1706" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1706" s="4">
-        <v>44335</v>
-      </c>
-      <c r="I1706" t="s">
+      <c r="E1709" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1709" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1709" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1709" s="4">
+        <v>44327</v>
+      </c>
+      <c r="I1709" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1707" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1707" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1707" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1707" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1707" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1707" t="s">
-        <v>789</v>
-      </c>
-      <c r="G1707" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1707" s="4">
-        <v>44335</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1708" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1708" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1708" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1708" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1708" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1708" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1708" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1708" s="4">
-        <v>44335</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1709" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1709" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1709" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1709" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1709" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1709" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1709" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1709" s="4">
-        <v>44335</v>
       </c>
     </row>
     <row r="1710" spans="1:9" x14ac:dyDescent="0.25">
@@ -50463,25 +50499,25 @@
         <v>2</v>
       </c>
       <c r="B1710" s="5" t="s">
-        <v>581</v>
+        <v>765</v>
       </c>
       <c r="C1710" s="5" t="s">
-        <v>85</v>
+        <v>757</v>
       </c>
       <c r="D1710" t="s">
-        <v>666</v>
+        <v>40</v>
       </c>
       <c r="E1710" s="5">
         <v>1</v>
       </c>
-      <c r="F1710" s="7" t="s">
-        <v>720</v>
+      <c r="F1710" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1710" t="s">
         <v>31</v>
       </c>
       <c r="H1710" s="4">
-        <v>44334</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="1711" spans="1:9" x14ac:dyDescent="0.25">
@@ -50489,25 +50525,28 @@
         <v>2</v>
       </c>
       <c r="B1711" s="5" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="C1711" s="5" t="s">
-        <v>85</v>
+        <v>757</v>
       </c>
       <c r="D1711" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E1711" s="5">
         <v>1</v>
       </c>
-      <c r="F1711" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1711" s="5" t="s">
-        <v>29</v>
+      <c r="F1711" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>30</v>
       </c>
       <c r="H1711" s="4">
-        <v>44335</v>
+        <v>44322</v>
+      </c>
+      <c r="I1711" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1712" spans="1:9" x14ac:dyDescent="0.25">
@@ -50515,80 +50554,77 @@
         <v>2</v>
       </c>
       <c r="B1712" s="5" t="s">
-        <v>665</v>
+        <v>765</v>
       </c>
       <c r="C1712" s="5" t="s">
-        <v>85</v>
+        <v>757</v>
       </c>
       <c r="D1712" t="s">
-        <v>667</v>
+        <v>45</v>
       </c>
       <c r="E1712" s="5">
         <v>1</v>
       </c>
-      <c r="F1712" s="7" t="s">
-        <v>790</v>
+      <c r="F1712" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1712" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1712" s="4">
-        <v>44337</v>
-      </c>
-      <c r="I1712" t="s">
-        <v>15</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="1713" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1713" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1713" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="C1713" s="5" t="s">
-        <v>85</v>
+      <c r="A1713" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>442</v>
       </c>
       <c r="D1713" t="s">
-        <v>667</v>
-      </c>
-      <c r="E1713" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1713" s="7" t="s">
-        <v>790</v>
+        <v>70</v>
+      </c>
+      <c r="E1713">
+        <v>2</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>23</v>
       </c>
       <c r="G1713" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1713" s="4">
-        <v>44337</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="1714" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1714" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1714" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C1714" s="5" t="s">
-        <v>91</v>
+      <c r="A1714" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>442</v>
       </c>
       <c r="D1714" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1714" s="5">
+        <v>60</v>
+      </c>
+      <c r="E1714">
         <v>1</v>
       </c>
       <c r="F1714" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1714" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="G1714" t="s">
         <v>31</v>
       </c>
       <c r="H1714" s="4">
-        <v>44337</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="1715" spans="1:9" x14ac:dyDescent="0.25">
@@ -50596,80 +50632,80 @@
         <v>2</v>
       </c>
       <c r="B1715" s="5" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="C1715" s="5" t="s">
-        <v>91</v>
+        <v>757</v>
       </c>
       <c r="D1715" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1715" s="5">
         <v>1</v>
       </c>
-      <c r="F1715" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1715" s="5" t="s">
-        <v>31</v>
+      <c r="F1715" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>30</v>
       </c>
       <c r="H1715" s="4">
-        <v>44337</v>
+        <v>44348</v>
+      </c>
+      <c r="I1715" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1716" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1716" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1716" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C1716" s="5" t="s">
-        <v>91</v>
+      <c r="A1716" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>442</v>
       </c>
       <c r="D1716" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1716" s="5">
+        <v>64</v>
+      </c>
+      <c r="E1716">
         <v>1</v>
       </c>
       <c r="F1716" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1716" s="5" t="s">
-        <v>30</v>
+        <v>532</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>31</v>
       </c>
       <c r="H1716" s="4">
-        <v>44342</v>
-      </c>
-      <c r="I1716" t="s">
-        <v>15</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="1717" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1717" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1717" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C1717" s="5" t="s">
-        <v>91</v>
+      <c r="A1717" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>88</v>
       </c>
       <c r="D1717" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1717" s="5">
+        <v>62</v>
+      </c>
+      <c r="E1717">
         <v>1</v>
       </c>
       <c r="F1717" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1717" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1717" t="s">
         <v>31</v>
       </c>
       <c r="H1717" s="4">
-        <v>44343</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="1718" spans="1:9" x14ac:dyDescent="0.25">
@@ -50677,25 +50713,25 @@
         <v>2</v>
       </c>
       <c r="B1718" s="5" t="s">
-        <v>791</v>
+        <v>581</v>
       </c>
       <c r="C1718" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1718" t="s">
-        <v>42</v>
+        <v>666</v>
       </c>
       <c r="E1718" s="5">
         <v>1</v>
       </c>
-      <c r="F1718" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1718" s="5" t="s">
+      <c r="F1718" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1718" t="s">
         <v>31</v>
       </c>
       <c r="H1718" s="4">
-        <v>44343</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="1719" spans="1:9" x14ac:dyDescent="0.25">
@@ -50703,13 +50739,13 @@
         <v>2</v>
       </c>
       <c r="B1719" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C1719" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1719" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E1719" s="5">
         <v>1</v>
@@ -50721,39 +50757,39 @@
         <v>30</v>
       </c>
       <c r="H1719" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="I1719" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="1720" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1720" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1720" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C1720" s="5" t="s">
-        <v>91</v>
+      <c r="A1720" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>770</v>
       </c>
       <c r="D1720" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1720" s="5">
+        <v>666</v>
+      </c>
+      <c r="E1720">
         <v>1</v>
       </c>
       <c r="F1720" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1720" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1720" t="s">
         <v>30</v>
       </c>
       <c r="H1720" s="4">
-        <v>44342</v>
+        <v>44335</v>
       </c>
       <c r="I1720" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1721" spans="1:9" x14ac:dyDescent="0.25">
@@ -50761,13 +50797,13 @@
         <v>2</v>
       </c>
       <c r="B1721" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C1721" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1721" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1721" s="5">
         <v>1</v>
@@ -50776,13 +50812,10 @@
         <v>23</v>
       </c>
       <c r="G1721" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1721" s="4">
-        <v>44342</v>
-      </c>
-      <c r="I1721" t="s">
-        <v>15</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="1722" spans="1:9" x14ac:dyDescent="0.25">
@@ -50790,13 +50823,13 @@
         <v>2</v>
       </c>
       <c r="B1722" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C1722" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1722" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E1722" s="5">
         <v>1</v>
@@ -50808,7 +50841,7 @@
         <v>30</v>
       </c>
       <c r="H1722" s="4">
-        <v>44342</v>
+        <v>44335</v>
       </c>
       <c r="I1722" t="s">
         <v>15</v>
@@ -50819,13 +50852,13 @@
         <v>2</v>
       </c>
       <c r="B1723" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C1723" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1723" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E1723" s="5">
         <v>1</v>
@@ -50834,13 +50867,10 @@
         <v>23</v>
       </c>
       <c r="G1723" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1723" s="4">
-        <v>44342</v>
-      </c>
-      <c r="I1723" t="s">
-        <v>15</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="1724" spans="1:9" x14ac:dyDescent="0.25">
@@ -50848,13 +50878,13 @@
         <v>2</v>
       </c>
       <c r="B1724" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C1724" s="5" t="s">
-        <v>786</v>
+        <v>85</v>
       </c>
       <c r="D1724" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E1724" s="5">
         <v>1</v>
@@ -50866,7 +50896,7 @@
         <v>31</v>
       </c>
       <c r="H1724" s="4">
-        <v>44343</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="1725" spans="1:9" x14ac:dyDescent="0.25">
@@ -50874,25 +50904,28 @@
         <v>2</v>
       </c>
       <c r="B1725" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C1725" s="5" t="s">
-        <v>786</v>
+        <v>85</v>
       </c>
       <c r="D1725" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E1725" s="5">
         <v>1</v>
       </c>
       <c r="F1725" t="s">
-        <v>23</v>
+        <v>789</v>
       </c>
       <c r="G1725" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1725" s="4">
-        <v>44343</v>
+        <v>44335</v>
+      </c>
+      <c r="I1725" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1726" spans="1:9" x14ac:dyDescent="0.25">
@@ -50900,25 +50933,25 @@
         <v>2</v>
       </c>
       <c r="B1726" s="5" t="s">
-        <v>649</v>
+        <v>788</v>
       </c>
       <c r="C1726" s="5" t="s">
-        <v>784</v>
+        <v>85</v>
       </c>
       <c r="D1726" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E1726" s="5">
         <v>1</v>
       </c>
       <c r="F1726" t="s">
-        <v>23</v>
+        <v>789</v>
       </c>
       <c r="G1726" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1726" s="4">
-        <v>44343</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="1727" spans="1:9" x14ac:dyDescent="0.25">
@@ -50932,108 +50965,1324 @@
         <v>85</v>
       </c>
       <c r="D1727" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1727" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1727" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1727" s="4">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1728">
+        <v>1</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>795</v>
+      </c>
+      <c r="G1728" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1728" s="4">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1729">
+        <v>3</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1729" s="4">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1730">
+        <v>1</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1730" s="4">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1731">
+        <v>1</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1731" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1731" s="4">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1732" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1732" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1732" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1732" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1732" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1732" s="4">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1733" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1733" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1733" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1733" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1733" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1733" s="4">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1734" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1734" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1734" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1734" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1734" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1734" s="4">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1735" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1735" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1735" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1735" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1735" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1735" s="4">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1736" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1736" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1736" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1736" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1736" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1736" s="4">
+        <v>44337</v>
+      </c>
+      <c r="I1736" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1737" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1737" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1737" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1737" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1737" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1737" s="4">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1738" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1738" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1738" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1738" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1738" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1738" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1739" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1739" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1739" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1739" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1739" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1739" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1740">
+        <v>1</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1740" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1740" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1740" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1741">
+        <v>1</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>796</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1741" s="4">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1742" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1742" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1742" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1742" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1742" s="4">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1743" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1743" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1743" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1743" s="4">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1744" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1744" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1744" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1744" s="4">
+        <v>44328</v>
+      </c>
+      <c r="I1744" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1745" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1745" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1745" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1745" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1745" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1745" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1746" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1746" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1746" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1746" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1746" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1746" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1747" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1747" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1747" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1747" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1747" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1747" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1747" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1748">
+        <v>1</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1748" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I1748" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1749" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1749" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1749" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1749" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1749" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1749" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1750" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1750" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1750" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1750" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1750" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1750" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1751">
+        <v>1</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>796</v>
+      </c>
+      <c r="G1751" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1751" s="4">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1752" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1752" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1752" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1752" t="s">
         <v>56</v>
       </c>
-      <c r="E1727" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1727" t="s">
+      <c r="E1752" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1752" t="s">
         <v>468</v>
       </c>
-      <c r="G1727" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1727" s="4">
+      <c r="G1752" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1752" s="4">
         <v>44343</v>
       </c>
     </row>
-    <row r="1728" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1728" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1728" s="5" t="s">
+    <row r="1753" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1753" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1753" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="C1728" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1728" t="s">
+      <c r="C1753" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1753" t="s">
         <v>62</v>
       </c>
-      <c r="E1728" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1728" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1728" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1728" s="4">
+      <c r="E1753" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1753" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1753" s="4">
         <v>44343</v>
       </c>
     </row>
-    <row r="1729" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1729" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1729" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1729" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="D1729" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1729" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1729" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1729" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1729" s="4">
-        <v>44343</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1730" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1730" s="5" t="s">
+    <row r="1754" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1754" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1754" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1754" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1754" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1754" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1754" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1754" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1755" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1755" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1755" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1755" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1755" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1755" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1756" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1756" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1756" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1756" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1756" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1756" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1756" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1757" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1757" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1757" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1757" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1757" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1757" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1758" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1758" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1758" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1758" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1758" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1758" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1758" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1759">
+        <v>1</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1759" s="4">
+        <v>44347</v>
+      </c>
+      <c r="I1759" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1760" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1760" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1760" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1760" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1760" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1760" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1761" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1761" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1761" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1761" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1761" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1761" s="4">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1762" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1762" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1762" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1762" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1762" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1762" s="4">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1763" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1763" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1763" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1763" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1763" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1763" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1764" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1764" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1764" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1764" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1764" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1764" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1765" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1765" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1765" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1765" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1765" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1765" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1766" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1766" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1766" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1766" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1766" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1766" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1766" s="4">
+        <v>44347</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1767" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1767" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1767" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1767" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1767" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1767" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1767" s="4">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1768" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1768" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1768" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1768" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>797</v>
+      </c>
+      <c r="G1768" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1768" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1769" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1769" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1769" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1769" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1769" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1769" s="4">
+        <v>44342</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1770" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1770" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1770" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1770" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1770" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1770" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1770" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1771" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1771" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1771" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1771" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1771" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1771" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1772" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1772" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1772" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1772" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1772" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1772" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1772" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1773" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1773" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="C1730" s="5" t="s">
+      <c r="C1773" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="D1730" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1730" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1730" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1730" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1730" s="4">
-        <v>44344</v>
-      </c>
-      <c r="I1730" t="s">
-        <v>17</v>
+      <c r="D1773" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1773" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1773" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1773" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1773" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1774" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1774" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1774" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1774" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1774" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1774" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1774" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1775" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1775" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1775" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1775" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1775" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1775" s="4">
+        <v>44349</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1710" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1652">
-    <sortCondition ref="H2:H1652"/>
-    <sortCondition ref="C2:C1652"/>
-    <sortCondition ref="D2:D1652"/>
+  <autoFilter ref="A1:J1775" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1602:J1771">
+      <sortCondition ref="C1:C1771"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1759">
+    <sortCondition ref="H2:H1759"/>
+    <sortCondition ref="C2:C1759"/>
+    <sortCondition ref="D2:D1759"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Wiesbaden First Pass Acceptance.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F2868-C043-4F1C-9128-809F7B28812B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C69DD-3840-4C08-A80D-12F05FBD0DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19824" yWindow="-4344" windowWidth="34560" windowHeight="18744" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1775</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1988</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11633" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12993" uniqueCount="888">
   <si>
     <t>SQA</t>
   </si>
@@ -2432,6 +2432,273 @@
   </si>
   <si>
     <t>WI_L27</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>iSeries V7.2 ZARA Magic</t>
+  </si>
+  <si>
+    <t>IT Process Test Script - TLS upgrade</t>
+  </si>
+  <si>
+    <t>GER 400 Ref</t>
+  </si>
+  <si>
+    <t>GER 42 Prod</t>
+  </si>
+  <si>
+    <t>iSeries Upgrade V7.2 SCR</t>
+  </si>
+  <si>
+    <t>Upgrade TLS1.0 -&gt; TLS1.2 SCR</t>
+  </si>
+  <si>
+    <t>Upgrade TLS1.0 -&gt; TLS1.2 IA</t>
+  </si>
+  <si>
+    <t>iSeries</t>
+  </si>
+  <si>
+    <t>Release v33.31.0</t>
+  </si>
+  <si>
+    <t>Appendices</t>
+  </si>
+  <si>
+    <t>Releease 01.10.00</t>
+  </si>
+  <si>
+    <t>WI_C 38</t>
+  </si>
+  <si>
+    <t>Backup 1</t>
+  </si>
+  <si>
+    <t>Backup 2</t>
+  </si>
+  <si>
+    <t>Logfile</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>Command Set 1</t>
+  </si>
+  <si>
+    <t>Command Set 2</t>
+  </si>
+  <si>
+    <t>Command Set 3a</t>
+  </si>
+  <si>
+    <t>Command Set 3b</t>
+  </si>
+  <si>
+    <t>Command Set 4</t>
+  </si>
+  <si>
+    <t>Performance Storage</t>
+  </si>
+  <si>
+    <t>Performance FUE Backup Tool</t>
+  </si>
+  <si>
+    <t>System Backup Tool</t>
+  </si>
+  <si>
+    <t>Verifiy Backup chain System Backup</t>
+  </si>
+  <si>
+    <t>Verifiy Backup chain Data Backup</t>
+  </si>
+  <si>
+    <t>UMFD-072e</t>
+  </si>
+  <si>
+    <t>Release 01.58.00</t>
+  </si>
+  <si>
+    <t>GR-3</t>
+  </si>
+  <si>
+    <t>Infrastructure maintenance</t>
+  </si>
+  <si>
+    <t>Migrate Backup configuration and data</t>
+  </si>
+  <si>
+    <t>Provide FIIS backup storage</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Maintenance improvement</t>
+  </si>
+  <si>
+    <t>INV-REP</t>
+  </si>
+  <si>
+    <t>INV-SF</t>
+  </si>
+  <si>
+    <t>INV-MT</t>
+  </si>
+  <si>
+    <t>INV-IF</t>
+  </si>
+  <si>
+    <t>INV-UF</t>
+  </si>
+  <si>
+    <t>UMFD-072a</t>
+  </si>
+  <si>
+    <t>UMFD-072c</t>
+  </si>
+  <si>
+    <t>UMFD-072d</t>
+  </si>
+  <si>
+    <t>UMFD-072f</t>
+  </si>
+  <si>
+    <t>UMFD-072</t>
+  </si>
+  <si>
+    <t>UMFD-040</t>
+  </si>
+  <si>
+    <t>UMFD-040e</t>
+  </si>
+  <si>
+    <t>UMFD-073</t>
+  </si>
+  <si>
+    <t>MKPK-050</t>
+  </si>
+  <si>
+    <t>MKPK-050al</t>
+  </si>
+  <si>
+    <t>MKPK-050am</t>
+  </si>
+  <si>
+    <t>MFIN-031</t>
+  </si>
+  <si>
+    <t>TP04</t>
+  </si>
+  <si>
+    <t>TP F017</t>
+  </si>
+  <si>
+    <t>TP F009</t>
+  </si>
+  <si>
+    <t>TP F100</t>
+  </si>
+  <si>
+    <t>TP F101</t>
+  </si>
+  <si>
+    <t>TP F106</t>
+  </si>
+  <si>
+    <t>TP F105</t>
+  </si>
+  <si>
+    <t>TP F086</t>
+  </si>
+  <si>
+    <t>TP F087</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>GR-01</t>
+  </si>
+  <si>
+    <t>GR-02</t>
+  </si>
+  <si>
+    <t>GR-03</t>
+  </si>
+  <si>
+    <t>GR-04</t>
+  </si>
+  <si>
+    <t>Release 1.2.0.1</t>
+  </si>
+  <si>
+    <t>Release 7.0</t>
+  </si>
+  <si>
+    <t>WI_C 39</t>
+  </si>
+  <si>
+    <t>Release 01.31.00</t>
+  </si>
+  <si>
+    <t>TPM-IF</t>
+  </si>
+  <si>
+    <t>TPM-REP</t>
+  </si>
+  <si>
+    <t>TPM-SF</t>
+  </si>
+  <si>
+    <t>TPM-UI</t>
+  </si>
+  <si>
+    <t>W222-SF</t>
+  </si>
+  <si>
+    <t>W222-UI</t>
+  </si>
+  <si>
+    <t>RA Standards DB</t>
+  </si>
+  <si>
+    <t>Release 5.1</t>
+  </si>
+  <si>
+    <t>iSeries Upgrade V7.2 IA</t>
+  </si>
+  <si>
+    <t>IT Process Test Script - GER42 upgrade</t>
+  </si>
+  <si>
+    <t>iSeries Upgrade V7.2 IIVP GER42</t>
+  </si>
+  <si>
+    <t>Release 01.91.00</t>
+  </si>
+  <si>
+    <t>PD-005425 Warehouse Optimization Part 4.2</t>
+  </si>
+  <si>
+    <t>XMP-Babylon</t>
+  </si>
+  <si>
+    <t>GridVis</t>
+  </si>
+  <si>
+    <t>GLT</t>
   </si>
 </sst>
 </file>
@@ -2822,14 +3089,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -3042,7 +3309,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>265</v>
+        <v>887</v>
       </c>
       <c r="C18" t="s">
         <v>668</v>
@@ -3050,7 +3317,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
         <v>669</v>
@@ -3058,7 +3325,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -3066,7 +3333,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>784</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -3074,7 +3341,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -3082,7 +3349,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>810</v>
       </c>
       <c r="C23" t="s">
         <v>272</v>
@@ -3090,7 +3357,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>562</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -3098,7 +3365,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -3106,7 +3373,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>562</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -3114,7 +3381,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>770</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -3122,7 +3389,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -3130,7 +3397,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>770</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -3138,7 +3405,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -3146,7 +3413,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>442</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -3154,7 +3421,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>108</v>
+        <v>625</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -3162,7 +3429,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -3170,7 +3437,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>758</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -3178,7 +3445,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>257</v>
@@ -3186,7 +3453,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>88</v>
+        <v>878</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -3194,7 +3461,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>89</v>
+        <v>758</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -3202,7 +3469,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>90</v>
+        <v>563</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -3210,7 +3477,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>786</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -3218,7 +3485,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -3226,7 +3493,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -3234,7 +3501,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>92</v>
+        <v>786</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -3242,7 +3509,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
@@ -3250,28 +3517,40 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>885</v>
+      </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
@@ -3292,7 +3571,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C57">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C60">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3302,11 +3581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1775"/>
+  <dimension ref="A1:J1993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1775" sqref="I1775"/>
+      <pane ySplit="1" topLeftCell="A1964" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1994" sqref="F1994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47651,10 +47930,10 @@
         <v>757</v>
       </c>
       <c r="D1603" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E1603" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1603" s="5" t="s">
         <v>23</v>
@@ -47663,7 +47942,7 @@
         <v>31</v>
       </c>
       <c r="H1603" s="4">
-        <v>44320</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="1604" spans="1:9" x14ac:dyDescent="0.25">
@@ -49276,7 +49555,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
         <v>2</v>
       </c>
@@ -49302,7 +49581,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
         <v>2</v>
       </c>
@@ -49328,7 +49607,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
         <v>2</v>
       </c>
@@ -49354,7 +49633,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1668" s="5" t="s">
         <v>2</v>
       </c>
@@ -49380,7 +49659,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1669" s="5" t="s">
         <v>2</v>
       </c>
@@ -49406,7 +49685,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1670" s="5" t="s">
         <v>2</v>
       </c>
@@ -49432,7 +49711,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="1671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1671" s="5" t="s">
         <v>2</v>
       </c>
@@ -49443,10 +49722,10 @@
         <v>757</v>
       </c>
       <c r="D1671" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E1671" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1671" s="5" t="s">
         <v>23</v>
@@ -49458,7 +49737,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="1672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1672" s="5" t="s">
         <v>2</v>
       </c>
@@ -49469,25 +49748,22 @@
         <v>757</v>
       </c>
       <c r="D1672" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1672" s="8" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="E1672" s="5">
+        <v>1</v>
       </c>
       <c r="F1672" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1672" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1672" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1672" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1673" s="5" t="s">
         <v>2</v>
       </c>
@@ -49498,25 +49774,22 @@
         <v>757</v>
       </c>
       <c r="D1673" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1673" s="8" t="s">
-        <v>254</v>
+        <v>49</v>
+      </c>
+      <c r="E1673" s="5">
+        <v>1</v>
       </c>
       <c r="F1673" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1673" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1673" s="4">
-        <v>44327</v>
-      </c>
-      <c r="I1673" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1674" s="5" t="s">
         <v>2</v>
       </c>
@@ -49527,22 +49800,22 @@
         <v>757</v>
       </c>
       <c r="D1674" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1674" s="5">
         <v>1</v>
       </c>
       <c r="F1674" s="5" t="s">
-        <v>23</v>
+        <v>780</v>
       </c>
       <c r="G1674" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1674" s="4">
-        <v>44328</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1675" s="5" t="s">
         <v>2</v>
       </c>
@@ -49553,13 +49826,13 @@
         <v>757</v>
       </c>
       <c r="D1675" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E1675" s="5">
         <v>1</v>
       </c>
       <c r="F1675" s="5" t="s">
-        <v>23</v>
+        <v>781</v>
       </c>
       <c r="G1675" t="s">
         <v>31</v>
@@ -49568,7 +49841,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="1676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1676" s="5" t="s">
         <v>2</v>
       </c>
@@ -49579,25 +49852,22 @@
         <v>757</v>
       </c>
       <c r="D1676" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E1676" s="5">
         <v>1</v>
       </c>
       <c r="F1676" s="5" t="s">
-        <v>23</v>
+        <v>782</v>
       </c>
       <c r="G1676" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1676" s="4">
-        <v>44344</v>
-      </c>
-      <c r="I1676" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1677" s="5" t="s">
         <v>2</v>
       </c>
@@ -49623,7 +49893,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="1678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1678" s="5" t="s">
         <v>2</v>
       </c>
@@ -49649,7 +49919,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="1679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1679" s="5" t="s">
         <v>2</v>
       </c>
@@ -49675,7 +49945,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="1680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1680" s="5" t="s">
         <v>2</v>
       </c>
@@ -49842,7 +50112,7 @@
         <v>757</v>
       </c>
       <c r="D1686" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1686" s="5">
         <v>1</v>
@@ -49851,10 +50121,13 @@
         <v>23</v>
       </c>
       <c r="G1686" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1686" s="4">
-        <v>44344</v>
+        <v>44322</v>
+      </c>
+      <c r="I1686" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1687" spans="1:9" x14ac:dyDescent="0.25">
@@ -50036,19 +50309,19 @@
         <v>757</v>
       </c>
       <c r="D1693" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E1693" s="5">
         <v>1</v>
       </c>
       <c r="F1693" s="5" t="s">
-        <v>780</v>
+        <v>23</v>
       </c>
       <c r="G1693" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1693" s="4">
-        <v>44320</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="1694" spans="1:9" x14ac:dyDescent="0.25">
@@ -50166,19 +50439,22 @@
         <v>757</v>
       </c>
       <c r="D1698" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1698" s="5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E1698" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="F1698" s="5" t="s">
-        <v>781</v>
+        <v>23</v>
       </c>
       <c r="G1698" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1698" s="4">
-        <v>44320</v>
+        <v>44327</v>
+      </c>
+      <c r="I1698" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1699" spans="1:9" x14ac:dyDescent="0.25">
@@ -50192,19 +50468,22 @@
         <v>757</v>
       </c>
       <c r="D1699" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1699" s="5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E1699" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="F1699" s="5" t="s">
-        <v>782</v>
+        <v>23</v>
       </c>
       <c r="G1699" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1699" s="4">
-        <v>44320</v>
+        <v>44327</v>
+      </c>
+      <c r="I1699" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1700" spans="1:9" x14ac:dyDescent="0.25">
@@ -50499,25 +50778,25 @@
         <v>2</v>
       </c>
       <c r="B1710" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C1710" s="5" t="s">
-        <v>757</v>
+        <v>787</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>786</v>
       </c>
       <c r="D1710" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E1710" s="5">
         <v>1</v>
       </c>
-      <c r="F1710" s="5" t="s">
+      <c r="F1710" t="s">
         <v>23</v>
       </c>
       <c r="G1710" t="s">
         <v>31</v>
       </c>
       <c r="H1710" s="4">
-        <v>44313</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="1711" spans="1:9" x14ac:dyDescent="0.25">
@@ -50525,28 +50804,25 @@
         <v>2</v>
       </c>
       <c r="B1711" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C1711" s="5" t="s">
-        <v>757</v>
+        <v>787</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>786</v>
       </c>
       <c r="D1711" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1711" s="5">
         <v>1</v>
       </c>
-      <c r="F1711" s="5" t="s">
+      <c r="F1711" t="s">
         <v>23</v>
       </c>
       <c r="G1711" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1711" s="4">
-        <v>44322</v>
-      </c>
-      <c r="I1711" t="s">
-        <v>15</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="1712" spans="1:9" x14ac:dyDescent="0.25">
@@ -50560,7 +50836,7 @@
         <v>757</v>
       </c>
       <c r="D1712" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E1712" s="5">
         <v>1</v>
@@ -50572,7 +50848,7 @@
         <v>29</v>
       </c>
       <c r="H1712" s="4">
-        <v>44326</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="1713" spans="1:9" x14ac:dyDescent="0.25">
@@ -50632,25 +50908,25 @@
         <v>2</v>
       </c>
       <c r="B1715" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C1715" s="5" t="s">
-        <v>757</v>
+        <v>787</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>786</v>
       </c>
       <c r="D1715" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1715" s="5">
         <v>1</v>
       </c>
-      <c r="F1715" s="5" t="s">
+      <c r="F1715" t="s">
         <v>23</v>
       </c>
       <c r="G1715" t="s">
         <v>30</v>
       </c>
       <c r="H1715" s="4">
-        <v>44348</v>
+        <v>44328</v>
       </c>
       <c r="I1715" t="s">
         <v>15</v>
@@ -51248,13 +51524,13 @@
         <v>2</v>
       </c>
       <c r="B1738" s="5" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C1738" s="5" t="s">
-        <v>786</v>
+        <v>91</v>
       </c>
       <c r="D1738" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1738" s="5">
         <v>1</v>
@@ -51266,7 +51542,7 @@
         <v>31</v>
       </c>
       <c r="H1738" s="4">
-        <v>44343</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="1739" spans="1:9" x14ac:dyDescent="0.25">
@@ -51274,13 +51550,13 @@
         <v>2</v>
       </c>
       <c r="B1739" s="5" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C1739" s="5" t="s">
-        <v>786</v>
+        <v>91</v>
       </c>
       <c r="D1739" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1739" s="5">
         <v>1</v>
@@ -51292,7 +51568,7 @@
         <v>31</v>
       </c>
       <c r="H1739" s="4">
-        <v>44343</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="1740" spans="1:9" x14ac:dyDescent="0.25">
@@ -51355,13 +51631,13 @@
         <v>2</v>
       </c>
       <c r="B1742" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1742" t="s">
-        <v>786</v>
+        <v>791</v>
+      </c>
+      <c r="C1742" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D1742" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E1742" s="5">
         <v>1</v>
@@ -51369,11 +51645,14 @@
       <c r="F1742" t="s">
         <v>23</v>
       </c>
-      <c r="G1742" t="s">
-        <v>31</v>
+      <c r="G1742" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1742" s="4">
-        <v>44327</v>
+        <v>44342</v>
+      </c>
+      <c r="I1742" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1743" spans="1:9" x14ac:dyDescent="0.25">
@@ -51381,13 +51660,13 @@
         <v>2</v>
       </c>
       <c r="B1743" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1743" t="s">
-        <v>786</v>
+        <v>791</v>
+      </c>
+      <c r="C1743" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D1743" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E1743" s="5">
         <v>1</v>
@@ -51395,11 +51674,14 @@
       <c r="F1743" t="s">
         <v>23</v>
       </c>
-      <c r="G1743" t="s">
-        <v>31</v>
+      <c r="G1743" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1743" s="4">
-        <v>44327</v>
+        <v>44342</v>
+      </c>
+      <c r="I1743" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1744" spans="1:9" x14ac:dyDescent="0.25">
@@ -51407,13 +51689,13 @@
         <v>2</v>
       </c>
       <c r="B1744" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1744" t="s">
-        <v>786</v>
+        <v>791</v>
+      </c>
+      <c r="C1744" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D1744" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E1744" s="5">
         <v>1</v>
@@ -51421,11 +51703,11 @@
       <c r="F1744" t="s">
         <v>23</v>
       </c>
-      <c r="G1744" t="s">
+      <c r="G1744" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H1744" s="4">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="I1744" t="s">
         <v>15</v>
@@ -51442,7 +51724,7 @@
         <v>91</v>
       </c>
       <c r="D1745" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E1745" s="5">
         <v>1</v>
@@ -51451,10 +51733,13 @@
         <v>23</v>
       </c>
       <c r="G1745" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1745" s="4">
-        <v>44343</v>
+        <v>44342</v>
+      </c>
+      <c r="I1745" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1746" spans="1:9" x14ac:dyDescent="0.25">
@@ -51468,7 +51753,7 @@
         <v>91</v>
       </c>
       <c r="D1746" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1746" s="5">
         <v>1</v>
@@ -51477,10 +51762,13 @@
         <v>23</v>
       </c>
       <c r="G1746" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1746" s="4">
-        <v>44343</v>
+        <v>44342</v>
+      </c>
+      <c r="I1746" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1747" spans="1:9" x14ac:dyDescent="0.25">
@@ -51494,7 +51782,7 @@
         <v>91</v>
       </c>
       <c r="D1747" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E1747" s="5">
         <v>1</v>
@@ -51676,13 +51964,13 @@
         <v>2</v>
       </c>
       <c r="B1754" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C1754" s="5" t="s">
-        <v>91</v>
+        <v>786</v>
       </c>
       <c r="D1754" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1754" s="5">
         <v>1</v>
@@ -51691,13 +51979,10 @@
         <v>23</v>
       </c>
       <c r="G1754" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1754" s="4">
-        <v>44342</v>
-      </c>
-      <c r="I1754" t="s">
-        <v>15</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="1755" spans="1:9" x14ac:dyDescent="0.25">
@@ -51705,13 +51990,13 @@
         <v>2</v>
       </c>
       <c r="B1755" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C1755" s="5" t="s">
-        <v>91</v>
+        <v>786</v>
       </c>
       <c r="D1755" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E1755" s="5">
         <v>1</v>
@@ -51720,10 +52005,10 @@
         <v>23</v>
       </c>
       <c r="G1755" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1755" s="4">
-        <v>44348</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="1756" spans="1:9" x14ac:dyDescent="0.25">
@@ -51737,7 +52022,7 @@
         <v>91</v>
       </c>
       <c r="D1756" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E1756" s="5">
         <v>1</v>
@@ -51746,13 +52031,10 @@
         <v>23</v>
       </c>
       <c r="G1756" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1756" s="4">
-        <v>44342</v>
-      </c>
-      <c r="I1756" t="s">
-        <v>15</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="1757" spans="1:9" x14ac:dyDescent="0.25">
@@ -51766,7 +52048,7 @@
         <v>91</v>
       </c>
       <c r="D1757" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1757" s="5">
         <v>1</v>
@@ -51775,10 +52057,10 @@
         <v>23</v>
       </c>
       <c r="G1757" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1757" s="4">
-        <v>44348</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="1758" spans="1:9" x14ac:dyDescent="0.25">
@@ -51786,10 +52068,10 @@
         <v>2</v>
       </c>
       <c r="B1758" s="5" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="C1758" s="5" t="s">
-        <v>91</v>
+        <v>757</v>
       </c>
       <c r="D1758" t="s">
         <v>66</v>
@@ -51797,72 +52079,72 @@
       <c r="E1758" s="5">
         <v>1</v>
       </c>
-      <c r="F1758" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1758" s="5" t="s">
+      <c r="F1758" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1758" t="s">
         <v>30</v>
       </c>
       <c r="H1758" s="4">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="I1758" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1759" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1759" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1759" t="s">
+      <c r="A1759" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1759" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1759" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1759" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1759" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1759" s="4">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1760" t="s">
         <v>609</v>
       </c>
-      <c r="C1759" t="s">
+      <c r="C1760" t="s">
         <v>264</v>
       </c>
-      <c r="D1759" t="s">
+      <c r="D1760" t="s">
         <v>13</v>
       </c>
-      <c r="E1759">
-        <v>1</v>
-      </c>
-      <c r="F1759" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1759" t="s">
+      <c r="E1760">
+        <v>1</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1760" t="s">
         <v>30</v>
       </c>
-      <c r="H1759" s="4">
+      <c r="H1760" s="4">
         <v>44347</v>
       </c>
-      <c r="I1759" t="s">
+      <c r="I1760" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1760" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1760" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C1760" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1760" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1760" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1760" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1760" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1760" s="4">
-        <v>44348</v>
       </c>
     </row>
     <row r="1761" spans="1:9" x14ac:dyDescent="0.25">
@@ -51870,25 +52152,28 @@
         <v>2</v>
       </c>
       <c r="B1761" s="5" t="s">
-        <v>791</v>
+        <v>665</v>
       </c>
       <c r="C1761" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1761" t="s">
-        <v>12</v>
+        <v>667</v>
       </c>
       <c r="E1761" s="5">
         <v>1</v>
       </c>
-      <c r="F1761" t="s">
-        <v>23</v>
+      <c r="F1761" s="7" t="s">
+        <v>798</v>
       </c>
       <c r="G1761" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1761" s="4">
-        <v>44337</v>
+        <v>44347</v>
+      </c>
+      <c r="I1761" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1762" spans="1:9" x14ac:dyDescent="0.25">
@@ -51896,25 +52181,25 @@
         <v>2</v>
       </c>
       <c r="B1762" s="5" t="s">
-        <v>791</v>
+        <v>665</v>
       </c>
       <c r="C1762" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1762" t="s">
-        <v>40</v>
+        <v>667</v>
       </c>
       <c r="E1762" s="5">
         <v>1</v>
       </c>
-      <c r="F1762" t="s">
-        <v>23</v>
+      <c r="F1762" s="7" t="s">
+        <v>798</v>
       </c>
       <c r="G1762" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1762" s="4">
-        <v>44337</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="1763" spans="1:9" x14ac:dyDescent="0.25">
@@ -51922,25 +52207,25 @@
         <v>2</v>
       </c>
       <c r="B1763" s="5" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="C1763" s="5" t="s">
-        <v>91</v>
+        <v>757</v>
       </c>
       <c r="D1763" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E1763" s="5">
         <v>1</v>
       </c>
-      <c r="F1763" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1763" s="5" t="s">
+      <c r="F1763" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1763" t="s">
         <v>30</v>
       </c>
       <c r="H1763" s="4">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="I1763" t="s">
         <v>15</v>
@@ -51951,22 +52236,22 @@
         <v>2</v>
       </c>
       <c r="B1764" s="5" t="s">
-        <v>791</v>
+        <v>267</v>
       </c>
       <c r="C1764" s="5" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="D1764" t="s">
-        <v>45</v>
+        <v>667</v>
       </c>
       <c r="E1764" s="5">
         <v>1</v>
       </c>
       <c r="F1764" t="s">
-        <v>23</v>
+        <v>797</v>
       </c>
       <c r="G1764" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1764" s="4">
         <v>44348</v>
@@ -51977,19 +52262,19 @@
         <v>2</v>
       </c>
       <c r="B1765" s="5" t="s">
-        <v>791</v>
+        <v>665</v>
       </c>
       <c r="C1765" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1765" t="s">
-        <v>59</v>
+        <v>666</v>
       </c>
       <c r="E1765" s="5">
         <v>1</v>
       </c>
-      <c r="F1765" t="s">
-        <v>23</v>
+      <c r="F1765" s="7" t="s">
+        <v>798</v>
       </c>
       <c r="G1765" s="5" t="s">
         <v>31</v>
@@ -52003,28 +52288,25 @@
         <v>2</v>
       </c>
       <c r="B1766" s="5" t="s">
-        <v>665</v>
+        <v>791</v>
       </c>
       <c r="C1766" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1766" t="s">
-        <v>667</v>
+        <v>9</v>
       </c>
       <c r="E1766" s="5">
         <v>1</v>
       </c>
-      <c r="F1766" s="7" t="s">
-        <v>798</v>
+      <c r="F1766" t="s">
+        <v>23</v>
       </c>
       <c r="G1766" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1766" s="4">
-        <v>44347</v>
-      </c>
-      <c r="I1766" t="s">
-        <v>15</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="1767" spans="1:9" x14ac:dyDescent="0.25">
@@ -52032,25 +52314,25 @@
         <v>2</v>
       </c>
       <c r="B1767" s="5" t="s">
-        <v>665</v>
+        <v>791</v>
       </c>
       <c r="C1767" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1767" t="s">
-        <v>667</v>
+        <v>49</v>
       </c>
       <c r="E1767" s="5">
         <v>1</v>
       </c>
-      <c r="F1767" s="7" t="s">
-        <v>798</v>
+      <c r="F1767" t="s">
+        <v>23</v>
       </c>
       <c r="G1767" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H1767" s="4">
-        <v>44347</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="1768" spans="1:9" x14ac:dyDescent="0.25">
@@ -52058,22 +52340,22 @@
         <v>2</v>
       </c>
       <c r="B1768" s="5" t="s">
-        <v>267</v>
+        <v>791</v>
       </c>
       <c r="C1768" s="5" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="D1768" t="s">
-        <v>667</v>
+        <v>66</v>
       </c>
       <c r="E1768" s="5">
         <v>1</v>
       </c>
       <c r="F1768" t="s">
-        <v>797</v>
+        <v>23</v>
       </c>
       <c r="G1768" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1768" s="4">
         <v>44348</v>
@@ -52090,7 +52372,7 @@
         <v>91</v>
       </c>
       <c r="D1769" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E1769" s="5">
         <v>1</v>
@@ -52099,13 +52381,10 @@
         <v>23</v>
       </c>
       <c r="G1769" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1769" s="4">
-        <v>44342</v>
-      </c>
-      <c r="I1769" t="s">
-        <v>15</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="1770" spans="1:9" x14ac:dyDescent="0.25">
@@ -52113,19 +52392,19 @@
         <v>2</v>
       </c>
       <c r="B1770" s="5" t="s">
-        <v>665</v>
+        <v>791</v>
       </c>
       <c r="C1770" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1770" t="s">
-        <v>666</v>
+        <v>59</v>
       </c>
       <c r="E1770" s="5">
         <v>1</v>
       </c>
-      <c r="F1770" s="7" t="s">
-        <v>798</v>
+      <c r="F1770" t="s">
+        <v>23</v>
       </c>
       <c r="G1770" s="5" t="s">
         <v>31</v>
@@ -52165,10 +52444,10 @@
         <v>2</v>
       </c>
       <c r="B1772" s="5" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="C1772" s="5" t="s">
-        <v>91</v>
+        <v>757</v>
       </c>
       <c r="D1772" t="s">
         <v>44</v>
@@ -52209,27 +52488,24 @@
         <v>23</v>
       </c>
       <c r="G1773" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1773" s="4">
         <v>44349</v>
       </c>
-      <c r="I1773" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1774" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1774" s="5" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="C1774" s="5" t="s">
-        <v>786</v>
+        <v>757</v>
       </c>
       <c r="D1774" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E1774" s="5">
         <v>1</v>
@@ -52238,27 +52514,24 @@
         <v>23</v>
       </c>
       <c r="G1774" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1774" s="4">
         <v>44349</v>
       </c>
-      <c r="I1774" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1775" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1775" s="5" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="C1775" s="5" t="s">
-        <v>91</v>
+        <v>757</v>
       </c>
       <c r="D1775" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E1775" s="5">
         <v>1</v>
@@ -52267,22 +52540,5840 @@
         <v>23</v>
       </c>
       <c r="G1775" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1775" s="4">
         <v>44349</v>
       </c>
     </row>
+    <row r="1776" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1776" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1776" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1776" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1776" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1776" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1776" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1777">
+        <v>1</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>812</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1777" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1778">
+        <v>1</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1778" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1779">
+        <v>1</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1779" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1779" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1780">
+        <v>1</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1780" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1781">
+        <v>1</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1781" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1781" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1782" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1782" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1782" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1782" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1782" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1782" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1782" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1783" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1783" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1783" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1783" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1783" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1783" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1784" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1784" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1784" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1784" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1784" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1784" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I1784" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1785" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1785" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1785" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1785" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1785" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1785" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1786" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1786" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1786" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1786" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1786" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1786" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1787" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1787" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1787" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1787" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1787" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1787" s="4">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1788">
+        <v>1</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1788" s="4">
+        <v>44351</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1789" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1789" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1789" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1789" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1789" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1789" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1790" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1790" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1790" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1790" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1790" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1790" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1791">
+        <v>1</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1791" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1792">
+        <v>1</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1792" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1793">
+        <v>1</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1793" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1794">
+        <v>1</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>812</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1794" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1795">
+        <v>1</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1795" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1796">
+        <v>1</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1796" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1797">
+        <v>1</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1797" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1798">
+        <v>1</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1798" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1799" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1799" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1799" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1799" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1799" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1799" s="4">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1800">
+        <v>2</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>812</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1800" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1801">
+        <v>1</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1801" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1802">
+        <v>1</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1802" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1803">
+        <v>1</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>817</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1803" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1804">
+        <v>1</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1804" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1805">
+        <v>1</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>819</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1805" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1806">
+        <v>1</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1806" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1807">
+        <v>1</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>821</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1807" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1808">
+        <v>1</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>822</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1808" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1809">
+        <v>1</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1809" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1810">
+        <v>1</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1810" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1811">
+        <v>1</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>825</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1811" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1812">
+        <v>1</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>814</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1812" s="4">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1813">
+        <v>1</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1813" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1814">
+        <v>1</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1814" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1815">
+        <v>1</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>826</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1815" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1816" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1816" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1816" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1816" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1816" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1816" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1817" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1817" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1817" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1817" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1817" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1817" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1818" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1818" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1818" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1818" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1818" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1818" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1819" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1819" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1819" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1819" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1819" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1819" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1820" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1820" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1820" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1820" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1820" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1821" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1821" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1821" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1821" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1821" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1822" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1822" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1822" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1822" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1822" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1823" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1823" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1823" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1823" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1823" s="4">
+        <v>44356</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1824" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1824" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1824" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1824" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1824" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1825" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1825" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1825" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1825" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1825" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1826" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1826" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1826" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1826" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1826" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1827">
+        <v>2</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1827" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1828" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1828" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1828" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1828" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1828" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1829" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1829" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1829" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1829" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1829" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1830" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1830" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1830" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G1830" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1830" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1831" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1831" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1831" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1831" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1831" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1832" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1832" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1832" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1832" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1832" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1833" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1833" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1833" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1833" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1833" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1834" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1834" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1834" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1834" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1834" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1834" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1835" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1835" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1835" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1835" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1835" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1835" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1836" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1836" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1836" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1836" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G1836" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1836" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1837" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1837" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1837" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1837" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1837" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1837" s="4">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1838">
+        <v>1</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1838" s="4">
+        <v>44357</v>
+      </c>
+      <c r="I1838" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1839">
+        <v>1</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>829</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1839" s="4">
+        <v>44357</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1840">
+        <v>1</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1840" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1841">
+        <v>1</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1841" s="4">
+        <v>44358</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1842">
+        <v>1</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1842" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1843">
+        <v>1</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1843" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1844">
+        <v>1</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1844" s="4">
+        <v>44358</v>
+      </c>
+      <c r="I1844" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1845">
+        <v>1</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1845" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1846">
+        <v>1</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1846" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1847" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1847" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1847" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1847" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1847" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1847" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1848" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1848" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1848" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1848" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1848" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1848" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1849" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1849" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1849" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1849" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1849" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1849" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1850">
+        <v>2</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1850" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1851">
+        <v>1</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1851" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1852">
+        <v>1</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1852" s="4">
+        <v>44361</v>
+      </c>
+      <c r="I1852" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1853">
+        <v>1</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1853" s="4">
+        <v>44361</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1854" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1854" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1854" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1854" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1854" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1854" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1855" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1855" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1855" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1855" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1855" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1855" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1856">
+        <v>1</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>833</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1856" s="4">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1857">
+        <v>1</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1857" s="4">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1858">
+        <v>1</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1858" s="4">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1859">
+        <v>1</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>834</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1859" s="4">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1860">
+        <v>1</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1860" s="4">
+        <v>44362</v>
+      </c>
+      <c r="I1860" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1861">
+        <v>1</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1861" s="4">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1862">
+        <v>2</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1862" s="4">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1863" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1863" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1863" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1863" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1863" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1863" s="4">
+        <v>44362</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1864" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1864" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1864" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1864" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1864" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1864" s="4">
+        <v>44362</v>
+      </c>
+      <c r="I1864" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1865" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1865" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1865" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1865" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1866">
+        <v>1</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>836</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1866" s="4">
+        <v>44363</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1867" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1867" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1867" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1867" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1867" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1867" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1868" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1868" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1868" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1868" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1868" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1868" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1869">
+        <v>1</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1869" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1870">
+        <v>1</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1870" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1871">
+        <v>1</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1871" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1872">
+        <v>1</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1872" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1873" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1873" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1873" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1873" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1873" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1873" s="4">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1874">
+        <v>1</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1874" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I1874" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1875">
+        <v>1</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1875" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I1875" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1876">
+        <v>1</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>839</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1876" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I1876" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1877">
+        <v>1</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1877" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I1877" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1878">
+        <v>1</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1878" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I1878" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1879" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1879" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1879" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1879" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>804</v>
+      </c>
+      <c r="G1879" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1879" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1880" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1880" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1880" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1880" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1880" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1880" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1881">
+        <v>1</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1881" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1882" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1882" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1882" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1882" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1882" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1882" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1883" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1883" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1883" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1883" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1883" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1883" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1884" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1884" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1884" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1884" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1884" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1884" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1885" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1885" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1885" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1885" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1885" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1885" s="4">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1886" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1886" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1886" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1886" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1886" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1886" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1887" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1887" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1887" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1887" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1887" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1887" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1888">
+        <v>1</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1888" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1889">
+        <v>1</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>865</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1889" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1890">
+        <v>1</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1890" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1891">
+        <v>1</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1891" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1892" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1892" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1892" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1892" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1892" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1892" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1893">
+        <v>1</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>863</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1893" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1894">
+        <v>1</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1894" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1895">
+        <v>1</v>
+      </c>
+      <c r="F1895" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1895" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1895" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1896">
+        <v>1</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>854</v>
+      </c>
+      <c r="G1896" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1896" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1897">
+        <v>1</v>
+      </c>
+      <c r="F1897" t="s">
+        <v>855</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1897" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1898">
+        <v>1</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1898" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1899">
+        <v>1</v>
+      </c>
+      <c r="F1899" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1899" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1900">
+        <v>1</v>
+      </c>
+      <c r="F1900" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1900" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1901">
+        <v>1</v>
+      </c>
+      <c r="F1901" t="s">
+        <v>859</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1901" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1902">
+        <v>1</v>
+      </c>
+      <c r="F1902" t="s">
+        <v>860</v>
+      </c>
+      <c r="G1902" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1902" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1903">
+        <v>1</v>
+      </c>
+      <c r="F1903" t="s">
+        <v>861</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1903" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1904">
+        <v>1</v>
+      </c>
+      <c r="F1904" t="s">
+        <v>862</v>
+      </c>
+      <c r="G1904" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1904" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1905">
+        <v>1</v>
+      </c>
+      <c r="F1905" t="s">
+        <v>829</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1905" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1906">
+        <v>1</v>
+      </c>
+      <c r="F1906" t="s">
+        <v>842</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1906" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1907">
+        <v>1</v>
+      </c>
+      <c r="F1907" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1907" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1908">
+        <v>1</v>
+      </c>
+      <c r="F1908" t="s">
+        <v>844</v>
+      </c>
+      <c r="G1908" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1908" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1909">
+        <v>1</v>
+      </c>
+      <c r="F1909" t="s">
+        <v>845</v>
+      </c>
+      <c r="G1909" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1909" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1910">
+        <v>1</v>
+      </c>
+      <c r="F1910" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1910" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1911">
+        <v>1</v>
+      </c>
+      <c r="F1911" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1911" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1912">
+        <v>1</v>
+      </c>
+      <c r="F1912" t="s">
+        <v>848</v>
+      </c>
+      <c r="G1912" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1912" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1913">
+        <v>1</v>
+      </c>
+      <c r="F1913" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1913" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1914">
+        <v>1</v>
+      </c>
+      <c r="F1914" t="s">
+        <v>850</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1914" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1915">
+        <v>1</v>
+      </c>
+      <c r="F1915" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1915" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1916">
+        <v>1</v>
+      </c>
+      <c r="F1916" t="s">
+        <v>852</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1916" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1917">
+        <v>1</v>
+      </c>
+      <c r="F1917" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1917" s="4">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1918">
+        <v>1</v>
+      </c>
+      <c r="F1918" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1918" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1918" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1919">
+        <v>1</v>
+      </c>
+      <c r="F1919" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1919" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1919" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1919" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1920">
+        <v>1</v>
+      </c>
+      <c r="F1920" t="s">
+        <v>839</v>
+      </c>
+      <c r="G1920" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1920" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1920" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1921">
+        <v>1</v>
+      </c>
+      <c r="F1921" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1921" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1921" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1922">
+        <v>1</v>
+      </c>
+      <c r="F1922" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1922" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1922" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1923" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1923" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1923" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1923" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1923" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1923" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1923" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1923" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1924" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1924" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1924" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1924" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1924" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1924" s="4">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1925" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1925" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1925" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1925" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1925" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1925" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1925" s="4">
+        <v>44370</v>
+      </c>
+      <c r="I1925" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1926" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1926" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1926" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1926" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1926" t="s">
+        <v>789</v>
+      </c>
+      <c r="G1926" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1926" s="4">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1927" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1927" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1927" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1927" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1927" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1927" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1927" s="4">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>868</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1928">
+        <v>1</v>
+      </c>
+      <c r="F1928" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1928" s="4">
+        <v>44371</v>
+      </c>
+      <c r="I1928" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>868</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1929">
+        <v>1</v>
+      </c>
+      <c r="F1929" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1929" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1929" s="4">
+        <v>44371</v>
+      </c>
+      <c r="I1929" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>868</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1930">
+        <v>1</v>
+      </c>
+      <c r="F1930" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1930" s="4">
+        <v>44371</v>
+      </c>
+      <c r="I1930" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>868</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1931">
+        <v>1</v>
+      </c>
+      <c r="F1931" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1931" s="4">
+        <v>44371</v>
+      </c>
+      <c r="I1931" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1932">
+        <v>1</v>
+      </c>
+      <c r="F1932" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1932" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1932" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1933" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1933" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1933" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1933" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1933" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1933" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1933" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1934" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1934" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1934" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1934" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1934" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1934" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1934" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1935" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1935" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1935" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1935" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1935" t="s">
+        <v>805</v>
+      </c>
+      <c r="G1935" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1935" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1936" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1936" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1936" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1936" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1936" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1936" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1936" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1937" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1937" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1937" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1937" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1937" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1937" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1937" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1938" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1938" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1938" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1938" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1938" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1938" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1938" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1939" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1939" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1939" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1939" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1939" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1939" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1939" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1940">
+        <v>1</v>
+      </c>
+      <c r="F1940" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1940" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1940" s="4">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1941" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1941" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1941" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1941" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1941" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1941" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1941" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1942" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1942" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1942" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1942" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1942" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1942" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1942" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1943" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1943" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1943" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1943" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1943" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1943" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1943" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1944">
+        <v>1</v>
+      </c>
+      <c r="F1944" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1944" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1945">
+        <v>1</v>
+      </c>
+      <c r="F1945" t="s">
+        <v>863</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1945" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1946">
+        <v>1</v>
+      </c>
+      <c r="F1946" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1946" s="4">
+        <v>44375</v>
+      </c>
+      <c r="I1946" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1947" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1947" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1947" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1947" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1947" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1947" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1948" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1948" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1948" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1948" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1948" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1948" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1948" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1949">
+        <v>1</v>
+      </c>
+      <c r="F1949" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1949" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1949" s="4">
+        <v>44375</v>
+      </c>
+      <c r="I1949" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1950">
+        <v>1</v>
+      </c>
+      <c r="F1950" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1950" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1950" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1951">
+        <v>1</v>
+      </c>
+      <c r="F1951" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1951" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1951" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1952">
+        <v>1</v>
+      </c>
+      <c r="F1952" t="s">
+        <v>854</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1952" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1953">
+        <v>1</v>
+      </c>
+      <c r="F1953" t="s">
+        <v>855</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1953" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1954">
+        <v>1</v>
+      </c>
+      <c r="F1954" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1954" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1955">
+        <v>1</v>
+      </c>
+      <c r="F1955" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1955" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1955" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1956">
+        <v>1</v>
+      </c>
+      <c r="F1956" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1956" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1957">
+        <v>1</v>
+      </c>
+      <c r="F1957" t="s">
+        <v>859</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1957" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1958">
+        <v>1</v>
+      </c>
+      <c r="F1958" t="s">
+        <v>860</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1958" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1959">
+        <v>1</v>
+      </c>
+      <c r="F1959" t="s">
+        <v>861</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1959" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1960">
+        <v>1</v>
+      </c>
+      <c r="F1960" t="s">
+        <v>862</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1960" s="4">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1961">
+        <v>1</v>
+      </c>
+      <c r="F1961" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1961" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I1961" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1962">
+        <v>1</v>
+      </c>
+      <c r="F1962" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1962" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1962" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I1962" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1963">
+        <v>1</v>
+      </c>
+      <c r="F1963" t="s">
+        <v>839</v>
+      </c>
+      <c r="G1963" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1963" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I1963" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1964">
+        <v>1</v>
+      </c>
+      <c r="F1964" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1964" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1964" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I1964" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1965">
+        <v>1</v>
+      </c>
+      <c r="F1965" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1965" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I1965" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1966">
+        <v>1</v>
+      </c>
+      <c r="F1966" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1966" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1966" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I1966" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1967">
+        <v>1</v>
+      </c>
+      <c r="F1967" t="s">
+        <v>873</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1967" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I1967" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1968">
+        <v>1</v>
+      </c>
+      <c r="F1968" t="s">
+        <v>874</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1968" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I1968" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1969">
+        <v>1</v>
+      </c>
+      <c r="F1969" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1969" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I1969" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1970">
+        <v>1</v>
+      </c>
+      <c r="F1970" t="s">
+        <v>876</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1970" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I1970" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1971">
+        <v>1</v>
+      </c>
+      <c r="F1971" t="s">
+        <v>877</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1971" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I1971" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1972" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1972" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1972" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1972" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1972" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="G1972" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1972" s="4">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1973" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1973" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1973" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1973" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1973" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1973" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1973" s="4">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1974" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1974" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1974" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1974" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1974" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="G1974" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1974" s="4">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1975" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1975" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1975" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1975" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1975" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="G1975" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1975" s="4">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1976" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1976" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1976" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1976" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1976" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1976" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1976" s="4">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1977" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1977" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1977" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1977" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1977" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1977" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1977" s="4">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1978" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1978" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1978" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1978" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1978" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1978" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1979" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1979" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1979" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1979" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1979" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1979" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1979" s="4">
+        <v>44378</v>
+      </c>
+      <c r="I1979" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1980" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1980" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1980" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1980" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1980" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1980" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I1980" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1981" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1981" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1981" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1981" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1981" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1981" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I1981" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1982" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1982" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1982" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1982" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1982" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1982" s="4">
+        <v>44378</v>
+      </c>
+      <c r="I1982" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1983" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1983" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1983" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1983" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1983" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1983" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1984" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1984" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1984" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1984" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1984" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1984" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1985" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1985" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1985" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1985" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1985" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1985" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1986" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1986" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1986" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1986" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1986" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1986" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1987" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1987" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1987" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1987" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1987" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1987" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1988" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1988" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1988" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1988" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1988" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1988" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1989" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1989" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1989" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1989" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1989" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1989" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1989" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1990" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1990" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1990" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1990" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1990" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1990" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1990" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1991" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1991" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1991" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1991" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1991" t="s">
+        <v>881</v>
+      </c>
+      <c r="G1991" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1991" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1992" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1992" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1992" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1992" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1992" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1992" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1993" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1993" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1993" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1993" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1993" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1993" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1993" s="4">
+        <v>44384</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1775" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1602:J1771">
-      <sortCondition ref="C1:C1771"/>
+  <autoFilter ref="A1:J1988" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1811">
+      <sortCondition ref="H1:H1811"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1759">
-    <sortCondition ref="H2:H1759"/>
-    <sortCondition ref="C2:C1759"/>
-    <sortCondition ref="D2:D1759"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1977">
+    <sortCondition ref="H2:H1977"/>
+    <sortCondition ref="C2:C1977"/>
+    <sortCondition ref="D2:D1977"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52316,9 +58407,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
-            <xm:f>Config!$B$2:$B$121</xm:f>
+            <xm:f>Config!$B$2:$B$124</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C475 C562:C1583 C555:C556 C477:C552 C1585:C1048576</xm:sqref>
+          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Wiesbaden First Pass Acceptance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C69DD-3840-4C08-A80D-12F05FBD0DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D1356-7694-4D59-985D-540619A8858B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1988</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1999</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12993" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13034" uniqueCount="889">
   <si>
     <t>SQA</t>
   </si>
@@ -2699,6 +2699,9 @@
   </si>
   <si>
     <t>GLT</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP2 - 2D Barcode Tests</t>
   </si>
 </sst>
 </file>
@@ -3581,11 +3584,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1993"/>
+  <dimension ref="A1:J1999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1964" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1994" sqref="F1994"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1963" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2000" sqref="A2000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58130,7 +58133,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="1985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1985" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1985" s="5" t="s">
         <v>2</v>
       </c>
@@ -58156,7 +58159,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="1986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1986" s="5" t="s">
         <v>2</v>
       </c>
@@ -58182,7 +58185,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="1987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1987" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1987" s="5" t="s">
         <v>2</v>
       </c>
@@ -58208,7 +58211,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="1988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1988" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1988" s="5" t="s">
         <v>2</v>
       </c>
@@ -58234,7 +58237,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="1989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1989" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1989" s="5" t="s">
         <v>2</v>
       </c>
@@ -58260,7 +58263,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="1990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1990" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1990" s="5" t="s">
         <v>2</v>
       </c>
@@ -58286,7 +58289,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="1991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1991" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1991" s="5" t="s">
         <v>2</v>
       </c>
@@ -58312,7 +58315,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="1992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1992" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1992" s="5" t="s">
         <v>2</v>
       </c>
@@ -58338,7 +58341,7 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="1993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1993" s="5" t="s">
         <v>2</v>
       </c>
@@ -58364,8 +58367,179 @@
         <v>44384</v>
       </c>
     </row>
+    <row r="1994" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1994" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1994" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1994" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1994" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1994" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1994" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1994" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I1994" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1995" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1995" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1995" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1995" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1995" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1995" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1995" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I1995" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1996" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1996" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1996" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1996" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1996" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1996" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1996" s="4">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1997" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1997" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1997" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1997" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1997" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1997" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1997" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I1997" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1998" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1998" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1998" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1998" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1998" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1998" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1998" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I1998" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1999" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1999" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1999" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1999" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1999" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1999" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1999" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I1999" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1988" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+  <autoFilter ref="A1:J1999" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1811">
       <sortCondition ref="H1:H1811"/>
     </sortState>

--- a/data/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Wiesbaden First Pass Acceptance.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D1356-7694-4D59-985D-540619A8858B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43493C8-5420-47A1-B7DC-C92A86AFF72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="1275" yWindow="1725" windowWidth="20430" windowHeight="10995" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1999</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$2182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13034" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14168" uniqueCount="917">
   <si>
     <t>SQA</t>
   </si>
@@ -2677,9 +2677,6 @@
     <t>Release 5.1</t>
   </si>
   <si>
-    <t>iSeries Upgrade V7.2 IA</t>
-  </si>
-  <si>
     <t>IT Process Test Script - GER42 upgrade</t>
   </si>
   <si>
@@ -2702,6 +2699,93 @@
   </si>
   <si>
     <t>PD-005425 Scan Barcode - TP2 - 2D Barcode Tests</t>
+  </si>
+  <si>
+    <t>Release 7.3.0.2</t>
+  </si>
+  <si>
+    <t>Release 7.5 expert</t>
+  </si>
+  <si>
+    <t>Release TLS upgrade</t>
+  </si>
+  <si>
+    <t>iSeries V7.2 ZARA Magic - GER400</t>
+  </si>
+  <si>
+    <t>Release Upgrade V7.2</t>
+  </si>
+  <si>
+    <t>WI_L28</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP1 - List of goods receipt positions</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP3 - F10 Test</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP4 - Regression Test</t>
+  </si>
+  <si>
+    <t>Release 01.90.01</t>
+  </si>
+  <si>
+    <t>WI_L29</t>
+  </si>
+  <si>
+    <t>INV-TF</t>
+  </si>
+  <si>
+    <t>Cognos</t>
+  </si>
+  <si>
+    <t>INF-UI-1 - GCC#1</t>
+  </si>
+  <si>
+    <t>INF-UI-1 - GCC#2</t>
+  </si>
+  <si>
+    <t>INF-UI-1 - GCC#3</t>
+  </si>
+  <si>
+    <t>TPM-SSF</t>
+  </si>
+  <si>
+    <t>Release 02.22.01</t>
+  </si>
+  <si>
+    <t>INF-UI-1.1.1</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Release 9.9</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Supplemental Items</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>WebApp</t>
+  </si>
+  <si>
+    <t>Release 01.06.03</t>
+  </si>
+  <si>
+    <t>SPOC 016.1</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>WI_C 35</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3312,7 +3396,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C18" t="s">
         <v>668</v>
@@ -3328,7 +3412,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -3552,7 +3636,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -3584,11 +3668,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1999"/>
+  <dimension ref="A1:J2182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1963" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2000" sqref="A2000"/>
+      <pane ySplit="1" topLeftCell="A2167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2183" sqref="A2183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3680,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="47.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
@@ -55298,19 +55382,19 @@
         <v>2</v>
       </c>
       <c r="B1879" s="5" t="s">
-        <v>649</v>
+        <v>892</v>
       </c>
       <c r="C1879" s="5" t="s">
         <v>810</v>
       </c>
       <c r="D1879" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E1879" s="5">
         <v>1</v>
       </c>
       <c r="F1879" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G1879" s="5" t="s">
         <v>31</v>
@@ -55336,7 +55420,7 @@
         <v>1</v>
       </c>
       <c r="F1880" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G1880" s="5" t="s">
         <v>31</v>
@@ -55346,25 +55430,25 @@
       </c>
     </row>
     <row r="1881" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1881" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1881" t="s">
-        <v>745</v>
-      </c>
-      <c r="C1881" t="s">
-        <v>78</v>
+      <c r="A1881" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1881" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1881" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1881" t="s">
-        <v>667</v>
-      </c>
-      <c r="E1881">
+        <v>59</v>
+      </c>
+      <c r="E1881" s="5">
         <v>1</v>
       </c>
       <c r="F1881" t="s">
-        <v>870</v>
-      </c>
-      <c r="G1881" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1881" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1881" s="4">
@@ -55372,25 +55456,25 @@
       </c>
     </row>
     <row r="1882" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1882" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1882" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1882" s="5" t="s">
-        <v>85</v>
+      <c r="A1882" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>78</v>
       </c>
       <c r="D1882" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1882" s="5">
+        <v>667</v>
+      </c>
+      <c r="E1882">
         <v>1</v>
       </c>
       <c r="F1882" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1882" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1882" t="s">
         <v>31</v>
       </c>
       <c r="H1882" s="4">
@@ -55402,13 +55486,13 @@
         <v>2</v>
       </c>
       <c r="B1883" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1883" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1883" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E1883" s="5">
         <v>1</v>
@@ -55417,7 +55501,7 @@
         <v>23</v>
       </c>
       <c r="G1883" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1883" s="4">
         <v>44365</v>
@@ -55428,13 +55512,13 @@
         <v>2</v>
       </c>
       <c r="B1884" s="5" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="C1884" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1884" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E1884" s="5">
         <v>1</v>
@@ -55443,7 +55527,7 @@
         <v>23</v>
       </c>
       <c r="G1884" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1884" s="4">
         <v>44365</v>
@@ -55454,13 +55538,13 @@
         <v>2</v>
       </c>
       <c r="B1885" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1885" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1885" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E1885" s="5">
         <v>1</v>
@@ -55469,7 +55553,7 @@
         <v>23</v>
       </c>
       <c r="G1885" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1885" s="4">
         <v>44365</v>
@@ -55486,19 +55570,19 @@
         <v>85</v>
       </c>
       <c r="D1886" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E1886" s="5">
         <v>1</v>
       </c>
       <c r="F1886" t="s">
-        <v>468</v>
+        <v>23</v>
       </c>
       <c r="G1886" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1886" s="4">
-        <v>44369</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="1887" spans="1:9" x14ac:dyDescent="0.25">
@@ -55512,13 +55596,13 @@
         <v>85</v>
       </c>
       <c r="D1887" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E1887" s="5">
         <v>1</v>
       </c>
       <c r="F1887" t="s">
-        <v>23</v>
+        <v>468</v>
       </c>
       <c r="G1887" s="5" t="s">
         <v>31</v>
@@ -55528,25 +55612,25 @@
       </c>
     </row>
     <row r="1888" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1888" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1888" t="s">
-        <v>830</v>
-      </c>
-      <c r="C1888" t="s">
-        <v>442</v>
+      <c r="A1888" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1888" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1888" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1888" t="s">
         <v>59</v>
       </c>
-      <c r="E1888">
+      <c r="E1888" s="5">
         <v>1</v>
       </c>
       <c r="F1888" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1888" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1888" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1888" s="4">
@@ -55570,7 +55654,7 @@
         <v>1</v>
       </c>
       <c r="F1889" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G1889" t="s">
         <v>31</v>
@@ -55596,7 +55680,7 @@
         <v>1</v>
       </c>
       <c r="F1890" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G1890" t="s">
         <v>31</v>
@@ -55622,7 +55706,7 @@
         <v>1</v>
       </c>
       <c r="F1891" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G1891" t="s">
         <v>31</v>
@@ -55632,25 +55716,25 @@
       </c>
     </row>
     <row r="1892" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1892" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1892" s="5" t="s">
-        <v>649</v>
+      <c r="A1892" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>830</v>
       </c>
       <c r="C1892" t="s">
-        <v>758</v>
+        <v>442</v>
       </c>
       <c r="D1892" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1892" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1892">
         <v>1</v>
       </c>
       <c r="F1892" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1892" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1892" t="s">
         <v>31</v>
       </c>
       <c r="H1892" s="4">
@@ -55658,25 +55742,25 @@
       </c>
     </row>
     <row r="1893" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1893" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>811</v>
+      <c r="A1893" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1893" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="C1893" t="s">
-        <v>88</v>
+        <v>758</v>
       </c>
       <c r="D1893" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1893">
+        <v>60</v>
+      </c>
+      <c r="E1893" s="5">
         <v>1</v>
       </c>
       <c r="F1893" t="s">
-        <v>863</v>
-      </c>
-      <c r="G1893" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1893" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1893" s="4">
@@ -55700,7 +55784,7 @@
         <v>1</v>
       </c>
       <c r="F1894" t="s">
-        <v>151</v>
+        <v>863</v>
       </c>
       <c r="G1894" t="s">
         <v>31</v>
@@ -55720,13 +55804,13 @@
         <v>88</v>
       </c>
       <c r="D1895" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E1895">
         <v>1</v>
       </c>
       <c r="F1895" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G1895" t="s">
         <v>31</v>
@@ -55752,7 +55836,7 @@
         <v>1</v>
       </c>
       <c r="F1896" t="s">
-        <v>854</v>
+        <v>189</v>
       </c>
       <c r="G1896" t="s">
         <v>31</v>
@@ -55778,7 +55862,7 @@
         <v>1</v>
       </c>
       <c r="F1897" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G1897" t="s">
         <v>31</v>
@@ -55804,7 +55888,7 @@
         <v>1</v>
       </c>
       <c r="F1898" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G1898" t="s">
         <v>31</v>
@@ -55830,7 +55914,7 @@
         <v>1</v>
       </c>
       <c r="F1899" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G1899" t="s">
         <v>31</v>
@@ -55856,7 +55940,7 @@
         <v>1</v>
       </c>
       <c r="F1900" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G1900" t="s">
         <v>31</v>
@@ -55882,7 +55966,7 @@
         <v>1</v>
       </c>
       <c r="F1901" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G1901" t="s">
         <v>31</v>
@@ -55908,7 +55992,7 @@
         <v>1</v>
       </c>
       <c r="F1902" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1902" t="s">
         <v>31</v>
@@ -55934,7 +56018,7 @@
         <v>1</v>
       </c>
       <c r="F1903" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G1903" t="s">
         <v>31</v>
@@ -55960,7 +56044,7 @@
         <v>1</v>
       </c>
       <c r="F1904" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G1904" t="s">
         <v>31</v>
@@ -55980,16 +56064,16 @@
         <v>88</v>
       </c>
       <c r="D1905" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E1905">
         <v>1</v>
       </c>
       <c r="F1905" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="G1905" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1905" s="4">
         <v>44369</v>
@@ -56012,10 +56096,10 @@
         <v>1</v>
       </c>
       <c r="F1906" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G1906" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1906" s="4">
         <v>44369</v>
@@ -56038,7 +56122,7 @@
         <v>1</v>
       </c>
       <c r="F1907" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G1907" t="s">
         <v>31</v>
@@ -56064,7 +56148,7 @@
         <v>1</v>
       </c>
       <c r="F1908" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G1908" t="s">
         <v>31</v>
@@ -56090,7 +56174,7 @@
         <v>1</v>
       </c>
       <c r="F1909" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G1909" t="s">
         <v>31</v>
@@ -56116,7 +56200,7 @@
         <v>1</v>
       </c>
       <c r="F1910" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G1910" t="s">
         <v>31</v>
@@ -56142,7 +56226,7 @@
         <v>1</v>
       </c>
       <c r="F1911" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G1911" t="s">
         <v>31</v>
@@ -56168,7 +56252,7 @@
         <v>1</v>
       </c>
       <c r="F1912" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G1912" t="s">
         <v>31</v>
@@ -56194,7 +56278,7 @@
         <v>1</v>
       </c>
       <c r="F1913" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G1913" t="s">
         <v>31</v>
@@ -56220,7 +56304,7 @@
         <v>1</v>
       </c>
       <c r="F1914" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G1914" t="s">
         <v>31</v>
@@ -56246,7 +56330,7 @@
         <v>1</v>
       </c>
       <c r="F1915" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1915" t="s">
         <v>31</v>
@@ -56272,7 +56356,7 @@
         <v>1</v>
       </c>
       <c r="F1916" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G1916" t="s">
         <v>31</v>
@@ -56298,7 +56382,7 @@
         <v>1</v>
       </c>
       <c r="F1917" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G1917" t="s">
         <v>31</v>
@@ -56312,10 +56396,10 @@
         <v>1</v>
       </c>
       <c r="B1918" t="s">
-        <v>609</v>
+        <v>811</v>
       </c>
       <c r="C1918" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="D1918" t="s">
         <v>14</v>
@@ -56324,16 +56408,13 @@
         <v>1</v>
       </c>
       <c r="F1918" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="G1918" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1918" s="4">
-        <v>44370</v>
-      </c>
-      <c r="I1918" t="s">
-        <v>22</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="1919" spans="1:9" x14ac:dyDescent="0.25">
@@ -56353,7 +56434,7 @@
         <v>1</v>
       </c>
       <c r="F1919" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G1919" t="s">
         <v>30</v>
@@ -56382,7 +56463,7 @@
         <v>1</v>
       </c>
       <c r="F1920" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G1920" t="s">
         <v>30</v>
@@ -56411,7 +56492,7 @@
         <v>1</v>
       </c>
       <c r="F1921" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1921" t="s">
         <v>30</v>
@@ -56440,7 +56521,7 @@
         <v>1</v>
       </c>
       <c r="F1922" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1922" t="s">
         <v>30</v>
@@ -56453,32 +56534,32 @@
       </c>
     </row>
     <row r="1923" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1923" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1923" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1923" s="5" t="s">
-        <v>85</v>
+      <c r="A1923" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>264</v>
       </c>
       <c r="D1923" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1923" s="5">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E1923">
+        <v>1</v>
       </c>
       <c r="F1923" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1923" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1923" t="s">
         <v>30</v>
       </c>
       <c r="H1923" s="4">
         <v>44370</v>
       </c>
       <c r="I1923" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1924" spans="1:9" x14ac:dyDescent="0.25">
@@ -56492,20 +56573,23 @@
         <v>85</v>
       </c>
       <c r="D1924" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E1924" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1924" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="G1924" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="F1924" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1924" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1924" s="4">
         <v>44370</v>
       </c>
+      <c r="I1924" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1925" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1925" s="5" t="s">
@@ -56518,23 +56602,20 @@
         <v>85</v>
       </c>
       <c r="D1925" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1925" s="5">
         <v>1</v>
       </c>
-      <c r="F1925" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1925" s="5" t="s">
-        <v>30</v>
+      <c r="F1925" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>31</v>
       </c>
       <c r="H1925" s="4">
         <v>44370</v>
       </c>
-      <c r="I1925" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1926" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1926" s="5" t="s">
@@ -56547,20 +56628,23 @@
         <v>85</v>
       </c>
       <c r="D1926" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1926" s="5">
         <v>1</v>
       </c>
       <c r="F1926" t="s">
-        <v>789</v>
-      </c>
-      <c r="G1926" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1926" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1926" s="4">
         <v>44370</v>
       </c>
+      <c r="I1926" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1927" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1927" s="5" t="s">
@@ -56579,9 +56663,9 @@
         <v>1</v>
       </c>
       <c r="F1927" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1927" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G1927" t="s">
         <v>31</v>
       </c>
       <c r="H1927" s="4">
@@ -56589,32 +56673,29 @@
       </c>
     </row>
     <row r="1928" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1928" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>868</v>
-      </c>
-      <c r="C1928" t="s">
-        <v>268</v>
+      <c r="A1928" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1928" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1928" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1928" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1928">
+        <v>60</v>
+      </c>
+      <c r="E1928" s="5">
         <v>1</v>
       </c>
       <c r="F1928" t="s">
         <v>23</v>
       </c>
-      <c r="G1928" t="s">
-        <v>30</v>
+      <c r="G1928" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1928" s="4">
-        <v>44371</v>
-      </c>
-      <c r="I1928" t="s">
-        <v>22</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
@@ -56628,7 +56709,7 @@
         <v>268</v>
       </c>
       <c r="D1929" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E1929">
         <v>1</v>
@@ -56657,7 +56738,7 @@
         <v>268</v>
       </c>
       <c r="D1930" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E1930">
         <v>1</v>
@@ -56686,7 +56767,7 @@
         <v>268</v>
       </c>
       <c r="D1931" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E1931">
         <v>1</v>
@@ -56709,47 +56790,50 @@
         <v>1</v>
       </c>
       <c r="B1932" t="s">
-        <v>745</v>
+        <v>868</v>
       </c>
       <c r="C1932" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="D1932" t="s">
-        <v>666</v>
+        <v>41</v>
       </c>
       <c r="E1932">
         <v>1</v>
       </c>
       <c r="F1932" t="s">
-        <v>870</v>
+        <v>23</v>
       </c>
       <c r="G1932" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1932" s="4">
         <v>44371</v>
       </c>
+      <c r="I1932" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1933" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1933" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1933" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1933" s="5" t="s">
-        <v>85</v>
+      <c r="A1933" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>78</v>
       </c>
       <c r="D1933" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1933" s="5">
+        <v>666</v>
+      </c>
+      <c r="E1933">
         <v>1</v>
       </c>
       <c r="F1933" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1933" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1933" t="s">
         <v>31</v>
       </c>
       <c r="H1933" s="4">
@@ -56761,13 +56845,13 @@
         <v>2</v>
       </c>
       <c r="B1934" s="5" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="C1934" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1934" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E1934" s="5">
         <v>1</v>
@@ -56787,7 +56871,7 @@
         <v>2</v>
       </c>
       <c r="B1935" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1935" s="5" t="s">
         <v>85</v>
@@ -56799,7 +56883,7 @@
         <v>1</v>
       </c>
       <c r="F1935" t="s">
-        <v>805</v>
+        <v>23</v>
       </c>
       <c r="G1935" s="5" t="s">
         <v>31</v>
@@ -56813,19 +56897,19 @@
         <v>2</v>
       </c>
       <c r="B1936" s="5" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="C1936" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1936" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1936" s="5">
         <v>1</v>
       </c>
       <c r="F1936" t="s">
-        <v>23</v>
+        <v>805</v>
       </c>
       <c r="G1936" s="5" t="s">
         <v>31</v>
@@ -56845,7 +56929,7 @@
         <v>85</v>
       </c>
       <c r="D1937" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1937" s="5">
         <v>1</v>
@@ -56871,7 +56955,7 @@
         <v>85</v>
       </c>
       <c r="D1938" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1938" s="5">
         <v>1</v>
@@ -56891,16 +56975,16 @@
         <v>2</v>
       </c>
       <c r="B1939" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1939" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1939" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E1939" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1939" t="s">
         <v>23</v>
@@ -56913,25 +56997,25 @@
       </c>
     </row>
     <row r="1940" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1940" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>869</v>
-      </c>
-      <c r="C1940" t="s">
-        <v>94</v>
+      <c r="A1940" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1940" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1940" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1940" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1940">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E1940" s="5">
+        <v>2</v>
       </c>
       <c r="F1940" t="s">
         <v>23</v>
       </c>
-      <c r="G1940" t="s">
+      <c r="G1940" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1940" s="4">
@@ -56939,29 +57023,29 @@
       </c>
     </row>
     <row r="1941" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1941" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1941" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1941" s="5" t="s">
-        <v>85</v>
+      <c r="A1941" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>94</v>
       </c>
       <c r="D1941" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1941" s="5">
+        <v>40</v>
+      </c>
+      <c r="E1941">
         <v>1</v>
       </c>
       <c r="F1941" t="s">
         <v>23</v>
       </c>
-      <c r="G1941" s="5" t="s">
+      <c r="G1941" t="s">
         <v>31</v>
       </c>
       <c r="H1941" s="4">
-        <v>44372</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="1942" spans="1:9" x14ac:dyDescent="0.25">
@@ -56975,7 +57059,7 @@
         <v>85</v>
       </c>
       <c r="D1942" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1942" s="5">
         <v>1</v>
@@ -57001,7 +57085,7 @@
         <v>85</v>
       </c>
       <c r="D1943" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1943" s="5">
         <v>1</v>
@@ -57017,25 +57101,25 @@
       </c>
     </row>
     <row r="1944" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1944" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1944" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1944" t="s">
-        <v>88</v>
+      <c r="A1944" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1944" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1944" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1944" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1944">
+        <v>60</v>
+      </c>
+      <c r="E1944" s="5">
         <v>1</v>
       </c>
       <c r="F1944" t="s">
         <v>23</v>
       </c>
-      <c r="G1944" t="s">
+      <c r="G1944" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1944" s="4">
@@ -57053,13 +57137,13 @@
         <v>88</v>
       </c>
       <c r="D1945" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E1945">
         <v>1</v>
       </c>
       <c r="F1945" t="s">
-        <v>863</v>
+        <v>23</v>
       </c>
       <c r="G1945" t="s">
         <v>31</v>
@@ -57073,55 +57157,55 @@
         <v>1</v>
       </c>
       <c r="B1946" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1946">
+        <v>1</v>
+      </c>
+      <c r="F1946" t="s">
+        <v>863</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1946" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1947" t="s">
         <v>871</v>
       </c>
-      <c r="C1946" t="s">
+      <c r="C1947" t="s">
         <v>264</v>
       </c>
-      <c r="D1946" t="s">
+      <c r="D1947" t="s">
         <v>45</v>
       </c>
-      <c r="E1946">
-        <v>1</v>
-      </c>
-      <c r="F1946" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1946" t="s">
+      <c r="E1947">
+        <v>1</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1947" t="s">
         <v>30</v>
-      </c>
-      <c r="H1946" s="4">
-        <v>44375</v>
-      </c>
-      <c r="I1946" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1947" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1947" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1947" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1947" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1947" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1947" t="s">
-        <v>806</v>
-      </c>
-      <c r="G1947" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H1947" s="4">
         <v>44375</v>
       </c>
+      <c r="I1947" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1948" s="5" t="s">
@@ -57134,13 +57218,13 @@
         <v>85</v>
       </c>
       <c r="D1948" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1948" s="5">
         <v>1</v>
       </c>
       <c r="F1948" t="s">
-        <v>23</v>
+        <v>806</v>
       </c>
       <c r="G1948" s="5" t="s">
         <v>31</v>
@@ -57150,33 +57234,30 @@
       </c>
     </row>
     <row r="1949" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1949" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1949" t="s">
-        <v>88</v>
+      <c r="A1949" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1949" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1949" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1949" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1949">
+        <v>65</v>
+      </c>
+      <c r="E1949" s="5">
         <v>1</v>
       </c>
       <c r="F1949" t="s">
         <v>23</v>
       </c>
-      <c r="G1949" t="s">
-        <v>30</v>
+      <c r="G1949" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1949" s="4">
         <v>44375</v>
       </c>
-      <c r="I1949" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1950" t="s">
@@ -57198,11 +57279,14 @@
         <v>23</v>
       </c>
       <c r="G1950" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1950" s="4">
         <v>44375</v>
       </c>
+      <c r="I1950" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
@@ -57215,16 +57299,16 @@
         <v>88</v>
       </c>
       <c r="D1951" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1951">
         <v>1</v>
       </c>
       <c r="F1951" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="G1951" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1951" s="4">
         <v>44375</v>
@@ -57247,7 +57331,7 @@
         <v>1</v>
       </c>
       <c r="F1952" t="s">
-        <v>854</v>
+        <v>189</v>
       </c>
       <c r="G1952" t="s">
         <v>31</v>
@@ -57273,7 +57357,7 @@
         <v>1</v>
       </c>
       <c r="F1953" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G1953" t="s">
         <v>31</v>
@@ -57299,7 +57383,7 @@
         <v>1</v>
       </c>
       <c r="F1954" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G1954" t="s">
         <v>31</v>
@@ -57325,7 +57409,7 @@
         <v>1</v>
       </c>
       <c r="F1955" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G1955" t="s">
         <v>31</v>
@@ -57351,7 +57435,7 @@
         <v>1</v>
       </c>
       <c r="F1956" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G1956" t="s">
         <v>31</v>
@@ -57377,7 +57461,7 @@
         <v>1</v>
       </c>
       <c r="F1957" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G1957" t="s">
         <v>31</v>
@@ -57403,7 +57487,7 @@
         <v>1</v>
       </c>
       <c r="F1958" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1958" t="s">
         <v>31</v>
@@ -57429,7 +57513,7 @@
         <v>1</v>
       </c>
       <c r="F1959" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G1959" t="s">
         <v>31</v>
@@ -57455,7 +57539,7 @@
         <v>1</v>
       </c>
       <c r="F1960" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G1960" t="s">
         <v>31</v>
@@ -57469,28 +57553,25 @@
         <v>1</v>
       </c>
       <c r="B1961" t="s">
-        <v>609</v>
+        <v>811</v>
       </c>
       <c r="C1961" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="D1961" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E1961">
         <v>1</v>
       </c>
       <c r="F1961" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="G1961" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1961" s="4">
-        <v>44376</v>
-      </c>
-      <c r="I1961" t="s">
-        <v>22</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="1962" spans="1:9" x14ac:dyDescent="0.25">
@@ -57510,7 +57591,7 @@
         <v>1</v>
       </c>
       <c r="F1962" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G1962" t="s">
         <v>30</v>
@@ -57539,7 +57620,7 @@
         <v>1</v>
       </c>
       <c r="F1963" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G1963" t="s">
         <v>30</v>
@@ -57568,7 +57649,7 @@
         <v>1</v>
       </c>
       <c r="F1964" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1964" t="s">
         <v>30</v>
@@ -57597,7 +57678,7 @@
         <v>1</v>
       </c>
       <c r="F1965" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1965" t="s">
         <v>30</v>
@@ -57626,13 +57707,13 @@
         <v>1</v>
       </c>
       <c r="F1966" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="G1966" t="s">
         <v>30</v>
       </c>
       <c r="H1966" s="4">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="I1966" t="s">
         <v>22</v>
@@ -57655,7 +57736,7 @@
         <v>1</v>
       </c>
       <c r="F1967" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G1967" t="s">
         <v>30</v>
@@ -57684,7 +57765,7 @@
         <v>1</v>
       </c>
       <c r="F1968" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G1968" t="s">
         <v>30</v>
@@ -57713,7 +57794,7 @@
         <v>1</v>
       </c>
       <c r="F1969" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G1969" t="s">
         <v>30</v>
@@ -57742,7 +57823,7 @@
         <v>1</v>
       </c>
       <c r="F1970" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G1970" t="s">
         <v>30</v>
@@ -57771,7 +57852,7 @@
         <v>1</v>
       </c>
       <c r="F1971" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G1971" t="s">
         <v>30</v>
@@ -57784,30 +57865,33 @@
       </c>
     </row>
     <row r="1972" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1972" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1972" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1972" s="5" t="s">
-        <v>810</v>
+      <c r="A1972" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>264</v>
       </c>
       <c r="D1972" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1972" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1972" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="G1972" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E1972">
+        <v>1</v>
+      </c>
+      <c r="F1972" t="s">
+        <v>877</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>30</v>
       </c>
       <c r="H1972" s="4">
         <v>44377</v>
       </c>
+      <c r="I1972" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1973" s="5" t="s">
@@ -57820,13 +57904,13 @@
         <v>810</v>
       </c>
       <c r="D1973" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1973" s="5">
         <v>1</v>
       </c>
       <c r="F1973" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G1973" s="5" t="s">
         <v>31</v>
@@ -57852,7 +57936,7 @@
         <v>1</v>
       </c>
       <c r="F1974" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G1974" s="5" t="s">
         <v>31</v>
@@ -57866,19 +57950,19 @@
         <v>2</v>
       </c>
       <c r="B1975" s="5" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C1975" s="5" t="s">
-        <v>85</v>
+        <v>810</v>
       </c>
       <c r="D1975" t="s">
-        <v>666</v>
+        <v>41</v>
       </c>
       <c r="E1975" s="5">
         <v>1</v>
       </c>
       <c r="F1975" s="7" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="G1975" s="5" t="s">
         <v>31</v>
@@ -57892,19 +57976,19 @@
         <v>2</v>
       </c>
       <c r="B1976" s="5" t="s">
-        <v>788</v>
+        <v>665</v>
       </c>
       <c r="C1976" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1976" t="s">
-        <v>63</v>
+        <v>666</v>
       </c>
       <c r="E1976" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1976" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="F1976" s="7" t="s">
+        <v>790</v>
       </c>
       <c r="G1976" s="5" t="s">
         <v>31</v>
@@ -57918,7 +58002,7 @@
         <v>2</v>
       </c>
       <c r="B1977" s="5" t="s">
-        <v>581</v>
+        <v>788</v>
       </c>
       <c r="C1977" s="5" t="s">
         <v>85</v>
@@ -57944,16 +58028,16 @@
         <v>2</v>
       </c>
       <c r="B1978" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1978" t="s">
-        <v>878</v>
+        <v>581</v>
+      </c>
+      <c r="C1978" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1978" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E1978" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1978" t="s">
         <v>23</v>
@@ -57962,7 +58046,7 @@
         <v>31</v>
       </c>
       <c r="H1978" s="4">
-        <v>44378</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="1979" spans="1:9" x14ac:dyDescent="0.25">
@@ -57970,13 +58054,13 @@
         <v>2</v>
       </c>
       <c r="B1979" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1979" s="5" t="s">
-        <v>810</v>
+        <v>612</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>611</v>
       </c>
       <c r="D1979" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E1979" s="5">
         <v>1</v>
@@ -57999,13 +58083,13 @@
         <v>2</v>
       </c>
       <c r="B1980" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="C1980" t="s">
-        <v>92</v>
+        <v>890</v>
+      </c>
+      <c r="C1980" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1980" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E1980" s="5">
         <v>1</v>
@@ -58014,13 +58098,10 @@
         <v>23</v>
       </c>
       <c r="G1980" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1980" s="4">
-        <v>44379</v>
-      </c>
-      <c r="I1980" t="s">
-        <v>15</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="1981" spans="1:9" x14ac:dyDescent="0.25">
@@ -58028,13 +58109,13 @@
         <v>2</v>
       </c>
       <c r="B1981" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1981" t="s">
-        <v>611</v>
+        <v>890</v>
+      </c>
+      <c r="C1981" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1981" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E1981" s="5">
         <v>1</v>
@@ -58043,13 +58124,10 @@
         <v>23</v>
       </c>
       <c r="G1981" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1981" s="4">
-        <v>44379</v>
-      </c>
-      <c r="I1981" t="s">
-        <v>15</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="1982" spans="1:9" x14ac:dyDescent="0.25">
@@ -58057,13 +58135,13 @@
         <v>2</v>
       </c>
       <c r="B1982" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1982" t="s">
-        <v>611</v>
+        <v>892</v>
+      </c>
+      <c r="C1982" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1982" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E1982" s="5">
         <v>1</v>
@@ -58072,27 +58150,24 @@
         <v>23</v>
       </c>
       <c r="G1982" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1982" s="4">
         <v>44378</v>
       </c>
-      <c r="I1982" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1983" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1983" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>611</v>
+        <v>649</v>
+      </c>
+      <c r="C1983" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1983" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1983" s="5">
         <v>1</v>
@@ -58101,10 +58176,13 @@
         <v>23</v>
       </c>
       <c r="G1983" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1983" s="4">
-        <v>44379</v>
+        <v>44378</v>
+      </c>
+      <c r="I1983" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1984" spans="1:9" x14ac:dyDescent="0.25">
@@ -58112,13 +58190,13 @@
         <v>2</v>
       </c>
       <c r="B1984" s="5" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="C1984" t="s">
-        <v>611</v>
+        <v>878</v>
       </c>
       <c r="D1984" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E1984" s="5">
         <v>1</v>
@@ -58127,10 +58205,10 @@
         <v>23</v>
       </c>
       <c r="G1984" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1984" s="4">
-        <v>44382</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="1985" spans="1:9" x14ac:dyDescent="0.25">
@@ -58144,7 +58222,7 @@
         <v>611</v>
       </c>
       <c r="D1985" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1985" s="5">
         <v>1</v>
@@ -58156,7 +58234,7 @@
         <v>31</v>
       </c>
       <c r="H1985" s="4">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1986" spans="1:9" x14ac:dyDescent="0.25">
@@ -58170,7 +58248,7 @@
         <v>611</v>
       </c>
       <c r="D1986" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="E1986" s="5">
         <v>1</v>
@@ -58179,375 +58257,5243 @@
         <v>23</v>
       </c>
       <c r="G1986" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1986" s="4">
-        <v>44382</v>
+        <v>44379</v>
+      </c>
+      <c r="I1986" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1987" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1987" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1987" s="5" t="s">
-        <v>612</v>
+      <c r="A1987" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>609</v>
       </c>
       <c r="C1987" t="s">
-        <v>611</v>
+        <v>264</v>
       </c>
       <c r="D1987" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1987" s="5">
+        <v>43</v>
+      </c>
+      <c r="E1987">
         <v>1</v>
       </c>
       <c r="F1987" t="s">
         <v>23</v>
       </c>
-      <c r="G1987" s="5" t="s">
-        <v>31</v>
+      <c r="G1987" t="s">
+        <v>29</v>
       </c>
       <c r="H1987" s="4">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1988" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1988" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1988" s="5" t="s">
-        <v>612</v>
+      <c r="A1988" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>871</v>
       </c>
       <c r="C1988" t="s">
-        <v>611</v>
+        <v>264</v>
       </c>
       <c r="D1988" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1988" s="5">
+        <v>56</v>
+      </c>
+      <c r="E1988">
         <v>1</v>
       </c>
       <c r="F1988" t="s">
         <v>23</v>
       </c>
-      <c r="G1988" s="5" t="s">
+      <c r="G1988" t="s">
         <v>31</v>
       </c>
       <c r="H1988" s="4">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1989" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1989" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1989" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1989" s="5" t="s">
-        <v>810</v>
+      <c r="A1989" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>264</v>
       </c>
       <c r="D1989" t="s">
         <v>44</v>
       </c>
-      <c r="E1989" s="5">
+      <c r="E1989">
         <v>1</v>
       </c>
       <c r="F1989" t="s">
-        <v>880</v>
-      </c>
-      <c r="G1989" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1989" t="s">
         <v>31</v>
       </c>
       <c r="H1989" s="4">
-        <v>44383</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1990" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1990" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1990" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1990" s="5" t="s">
-        <v>810</v>
+      <c r="A1990" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>264</v>
       </c>
       <c r="D1990" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1990" s="5">
+        <v>41</v>
+      </c>
+      <c r="E1990">
         <v>1</v>
       </c>
       <c r="F1990" t="s">
-        <v>882</v>
-      </c>
-      <c r="G1990" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1990" t="s">
         <v>31</v>
       </c>
       <c r="H1990" s="4">
-        <v>44383</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1991" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1991" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1991" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1991" s="5" t="s">
-        <v>810</v>
+      <c r="A1991" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>264</v>
       </c>
       <c r="D1991" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1991" s="5">
+        <v>45</v>
+      </c>
+      <c r="E1991">
         <v>1</v>
       </c>
       <c r="F1991" t="s">
-        <v>881</v>
-      </c>
-      <c r="G1991" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1991" t="s">
+        <v>29</v>
       </c>
       <c r="H1991" s="4">
-        <v>44383</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1992" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1992" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1992" s="5" t="s">
-        <v>612</v>
+      <c r="A1992" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>609</v>
       </c>
       <c r="C1992" t="s">
-        <v>611</v>
+        <v>264</v>
       </c>
       <c r="D1992" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1992" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1992">
         <v>1</v>
       </c>
       <c r="F1992" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1992" s="5" t="s">
-        <v>31</v>
+        <v>874</v>
+      </c>
+      <c r="G1992" t="s">
+        <v>30</v>
       </c>
       <c r="H1992" s="4">
-        <v>44384</v>
+        <v>44379</v>
+      </c>
+      <c r="I1992" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1993" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1993" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1993" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1993" s="5" t="s">
-        <v>85</v>
+      <c r="A1993" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>264</v>
       </c>
       <c r="D1993" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1993" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1993">
         <v>1</v>
       </c>
       <c r="F1993" t="s">
-        <v>884</v>
-      </c>
-      <c r="G1993" s="5" t="s">
-        <v>31</v>
+        <v>877</v>
+      </c>
+      <c r="G1993" t="s">
+        <v>30</v>
       </c>
       <c r="H1993" s="4">
-        <v>44384</v>
+        <v>44379</v>
+      </c>
+      <c r="I1993" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1994" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1994" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1994" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1994" s="5" t="s">
-        <v>85</v>
+      <c r="A1994" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>264</v>
       </c>
       <c r="D1994" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1994" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1994">
         <v>1</v>
       </c>
       <c r="F1994" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1994" s="5" t="s">
-        <v>30</v>
+        <v>837</v>
+      </c>
+      <c r="G1994" t="s">
+        <v>29</v>
       </c>
       <c r="H1994" s="4">
-        <v>44385</v>
-      </c>
-      <c r="I1994" t="s">
-        <v>15</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1995" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1995" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1995" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1995" s="5" t="s">
-        <v>85</v>
+      <c r="A1995" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>264</v>
       </c>
       <c r="D1995" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1995" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1995">
         <v>1</v>
       </c>
       <c r="F1995" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1995" s="5" t="s">
-        <v>30</v>
+        <v>838</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>29</v>
       </c>
       <c r="H1995" s="4">
-        <v>44385</v>
-      </c>
-      <c r="I1995" t="s">
-        <v>15</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1996" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1996" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1996" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1996" s="5" t="s">
-        <v>786</v>
+      <c r="A1996" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>264</v>
       </c>
       <c r="D1996" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1996" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1996">
         <v>1</v>
       </c>
       <c r="F1996" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1996" s="5" t="s">
-        <v>31</v>
+        <v>839</v>
+      </c>
+      <c r="G1996" t="s">
+        <v>29</v>
       </c>
       <c r="H1996" s="4">
-        <v>44386</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1997" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1997" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1997" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1997" s="5" t="s">
-        <v>85</v>
+      <c r="A1997" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>264</v>
       </c>
       <c r="D1997" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1997" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1997">
         <v>1</v>
       </c>
       <c r="F1997" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1997" s="5" t="s">
-        <v>30</v>
+        <v>840</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>29</v>
       </c>
       <c r="H1997" s="4">
-        <v>44386</v>
-      </c>
-      <c r="I1997" t="s">
-        <v>15</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1998" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1998" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1998" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1998" s="5" t="s">
-        <v>85</v>
+      <c r="A1998" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>264</v>
       </c>
       <c r="D1998" t="s">
         <v>14</v>
       </c>
-      <c r="E1998" s="5">
+      <c r="E1998">
         <v>1</v>
       </c>
       <c r="F1998" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1998" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1998" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1999">
+        <v>1</v>
+      </c>
+      <c r="F1999" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1999" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2000">
+        <v>1</v>
+      </c>
+      <c r="F2000" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2000" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2001">
+        <v>1</v>
+      </c>
+      <c r="F2001" t="s">
+        <v>864</v>
+      </c>
+      <c r="G2001" t="s">
         <v>30</v>
       </c>
-      <c r="H1998" s="4">
+      <c r="H2001" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I2001" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2002">
+        <v>1</v>
+      </c>
+      <c r="F2002" t="s">
+        <v>865</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2002" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I2002" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2003">
+        <v>1</v>
+      </c>
+      <c r="F2003" t="s">
+        <v>866</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2003" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2004">
+        <v>1</v>
+      </c>
+      <c r="F2004" t="s">
+        <v>867</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2004" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2005">
+        <v>1</v>
+      </c>
+      <c r="F2005" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2005" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2006" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2006" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2006" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2006" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2006" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2006" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I2006" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2007" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2007" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2007" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2007" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2007" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2007" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2008" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2008" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2008" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2008" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2008" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2008" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2009" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2009" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2009" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2009" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2009" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2009" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2010" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2010" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2010" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2010" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2010" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2010" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2011" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2011" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2011" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2011" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2011" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2011" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2012">
+        <v>1</v>
+      </c>
+      <c r="F2012" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2012" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2013">
+        <v>1</v>
+      </c>
+      <c r="F2013" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2013" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2013" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2014">
+        <v>1</v>
+      </c>
+      <c r="F2014" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2014" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2014" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2015">
+        <v>1</v>
+      </c>
+      <c r="F2015" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2015" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2015" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2016">
+        <v>2</v>
+      </c>
+      <c r="F2016" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2016" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2016" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2017">
+        <v>2</v>
+      </c>
+      <c r="F2017" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2017" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2017" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2018">
+        <v>1</v>
+      </c>
+      <c r="F2018" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2018" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2018" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2019">
+        <v>1</v>
+      </c>
+      <c r="F2019" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2019" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2019" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2020">
+        <v>1</v>
+      </c>
+      <c r="F2020" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2020" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2020" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2021">
+        <v>1</v>
+      </c>
+      <c r="F2021" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2021" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2021" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2022">
+        <v>1</v>
+      </c>
+      <c r="F2022" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2022" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2022" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2023">
+        <v>1</v>
+      </c>
+      <c r="F2023" t="s">
+        <v>903</v>
+      </c>
+      <c r="G2023" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2023" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2024">
+        <v>1</v>
+      </c>
+      <c r="F2024" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2024" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2024" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2025">
+        <v>1</v>
+      </c>
+      <c r="F2025" t="s">
+        <v>877</v>
+      </c>
+      <c r="G2025" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2025" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2026">
+        <v>1</v>
+      </c>
+      <c r="F2026" t="s">
+        <v>876</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2026" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2027">
+        <v>1</v>
+      </c>
+      <c r="F2027" t="s">
+        <v>875</v>
+      </c>
+      <c r="G2027" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2027" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2028">
+        <v>1</v>
+      </c>
+      <c r="F2028" t="s">
+        <v>872</v>
+      </c>
+      <c r="G2028" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2028" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2029" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2029">
+        <v>1</v>
+      </c>
+      <c r="F2029" t="s">
+        <v>904</v>
+      </c>
+      <c r="G2029" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2029" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2030" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2030">
+        <v>1</v>
+      </c>
+      <c r="F2030" t="s">
+        <v>874</v>
+      </c>
+      <c r="G2030" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2030" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2031" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2031">
+        <v>1</v>
+      </c>
+      <c r="F2031" t="s">
+        <v>873</v>
+      </c>
+      <c r="G2031" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2031" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2032" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2032">
+        <v>2</v>
+      </c>
+      <c r="F2032" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2032" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2032" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2033" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2033">
+        <v>2</v>
+      </c>
+      <c r="F2033" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2033" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2033" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2034" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2034">
+        <v>1</v>
+      </c>
+      <c r="F2034" t="s">
+        <v>863</v>
+      </c>
+      <c r="G2034" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2034" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2035" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2035">
+        <v>2</v>
+      </c>
+      <c r="F2035" t="s">
+        <v>863</v>
+      </c>
+      <c r="G2035" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2035" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2036" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2036">
+        <v>1</v>
+      </c>
+      <c r="F2036" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2036" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2036" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2037" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2037" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2037" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2037" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2037" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2037" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2037" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2038" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2038" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2038" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2038" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2038" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2038" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2038" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2039" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2039" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2039" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2039" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2039" t="s">
+        <v>880</v>
+      </c>
+      <c r="G2039" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2039" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2040" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2040" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2040" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2040" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2040" t="s">
+        <v>880</v>
+      </c>
+      <c r="G2040" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2040" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2041" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2041" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2041" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2041" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2041" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2041" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2041" s="4">
+        <v>44383</v>
+      </c>
+      <c r="I2041" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2042" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2042">
+        <v>1</v>
+      </c>
+      <c r="F2042" t="s">
+        <v>740</v>
+      </c>
+      <c r="G2042" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2042" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2043" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2043">
+        <v>1</v>
+      </c>
+      <c r="F2043" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2043" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2043" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2044" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2044">
+        <v>1</v>
+      </c>
+      <c r="F2044" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2044" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2044" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2045" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2045" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2045" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2045" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2045" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2045" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2046" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2046">
+        <v>1</v>
+      </c>
+      <c r="F2046" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2046" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2046" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2047">
+        <v>1</v>
+      </c>
+      <c r="F2047" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2047" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2047" s="4">
+        <v>44384</v>
+      </c>
+      <c r="I2047" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2048">
+        <v>1</v>
+      </c>
+      <c r="F2048" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2048" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2048" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2049">
+        <v>1</v>
+      </c>
+      <c r="F2049" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2049" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2049" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2050">
+        <v>1</v>
+      </c>
+      <c r="F2050" t="s">
+        <v>906</v>
+      </c>
+      <c r="G2050" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2050" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2051" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2051" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2051" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2051" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2051" t="s">
+        <v>883</v>
+      </c>
+      <c r="G2051" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2051" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2052">
+        <v>1</v>
+      </c>
+      <c r="F2052" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2052" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2052" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2052" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2053">
+        <v>1</v>
+      </c>
+      <c r="F2053" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2053" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2053" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2053" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2054">
+        <v>1</v>
+      </c>
+      <c r="F2054" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2054" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2054" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2055">
+        <v>1</v>
+      </c>
+      <c r="F2055" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2055" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2055" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2055" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2056">
+        <v>1</v>
+      </c>
+      <c r="F2056" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2056" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2056" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2057">
+        <v>1</v>
+      </c>
+      <c r="F2057" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2057" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2057" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2058">
+        <v>1</v>
+      </c>
+      <c r="F2058" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2058" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2058" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2059">
+        <v>1</v>
+      </c>
+      <c r="F2059" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2059" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2059" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2059" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2060">
+        <v>1</v>
+      </c>
+      <c r="F2060" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2060" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2060" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2061">
+        <v>1</v>
+      </c>
+      <c r="F2061" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2061" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2061" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2062">
+        <v>1</v>
+      </c>
+      <c r="F2062" t="s">
+        <v>903</v>
+      </c>
+      <c r="G2062" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2062" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2063">
+        <v>1</v>
+      </c>
+      <c r="F2063" t="s">
+        <v>906</v>
+      </c>
+      <c r="G2063" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2063" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2064" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2064" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2064" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2064" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2064" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2064" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2064" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2065" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2065" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2065" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2065" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2065" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2065" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2065" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2065" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2066" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2066" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2066" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2066" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2066" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2066" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2066" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2066" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2067" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2067" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2067" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2067" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2067" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2067" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2067" s="4">
         <v>44386</v>
       </c>
-      <c r="I1998" t="s">
+      <c r="I2067" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1999" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1999" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1999" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1999" t="s">
+    <row r="2068" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2068" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2068" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2068" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2068" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2068" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2068" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2068" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I2068" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2069" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2069" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2069" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2069" t="s">
         <v>59</v>
       </c>
-      <c r="E1999" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1999" t="s">
+      <c r="E2069" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2069" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2069" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2069" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I2069" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2070" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2070" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2070" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2070" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2070" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2070" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2070" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I2070" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2071" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2071" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2071" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2071" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2071" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2071" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2071" s="4">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2072">
+        <v>1</v>
+      </c>
+      <c r="F2072" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2072" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2072" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2072" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2073">
+        <v>1</v>
+      </c>
+      <c r="F2073" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2073" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2073" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2073" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2074">
+        <v>1</v>
+      </c>
+      <c r="F2074" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2074" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2074" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2074" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2075">
+        <v>1</v>
+      </c>
+      <c r="F2075" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2075" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2075" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2076">
+        <v>1</v>
+      </c>
+      <c r="F2076" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2076" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2076" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2077">
+        <v>1</v>
+      </c>
+      <c r="F2077" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2077" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2077" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2078">
+        <v>1</v>
+      </c>
+      <c r="F2078" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2078" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2078" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2079">
+        <v>1</v>
+      </c>
+      <c r="F2079" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2079" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2079" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2079" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2080">
+        <v>1</v>
+      </c>
+      <c r="F2080" t="s">
+        <v>911</v>
+      </c>
+      <c r="G2080" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2080" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2080" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2081">
+        <v>1</v>
+      </c>
+      <c r="F2081" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2081" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2081" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2082">
+        <v>1</v>
+      </c>
+      <c r="F2082" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2082" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2082" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2082" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2083">
+        <v>1</v>
+      </c>
+      <c r="F2083" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2083" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2083" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2084">
+        <v>1</v>
+      </c>
+      <c r="F2084" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2084" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2084" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2085">
+        <v>1</v>
+      </c>
+      <c r="F2085" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2085" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2085" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2085" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2086" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2086" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>886</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2086" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2086" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2086" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2086" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2087" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2087" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2087" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2087" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2087" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2087" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2088" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2088" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2088" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2088" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2088" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2088" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2088" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2089" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2089" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2089" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2089" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2089" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2089" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2089" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2090" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2090" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2090" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2090" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2090" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="G2090" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2090" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2091" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2091" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2091" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2091" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2091" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2091" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2091" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2091" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2092" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2092" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2092" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2092" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2092" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2092" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2092" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2093" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2093" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2093" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2093" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2093" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2093" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2093" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2094" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2094" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2094" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2094" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2094" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2094" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2094" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2095" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2095" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2095" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2095" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2095" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2095" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2095" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2096" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2096" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2096" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2096" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2096" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2096" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2096" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2097" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2097" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2097" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2097" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2097" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2097" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2097" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2098" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2098" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2098" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2098" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2098" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2099">
+        <v>1</v>
+      </c>
+      <c r="F2099" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2099" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2100" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="G1999" s="5" t="s">
+      <c r="C2100" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2100" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2100" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2101">
+        <v>1</v>
+      </c>
+      <c r="F2101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2101" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2102">
+        <v>1</v>
+      </c>
+      <c r="F2102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2102" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2103">
+        <v>1</v>
+      </c>
+      <c r="F2103" t="s">
+        <v>864</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2103" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2104">
+        <v>1</v>
+      </c>
+      <c r="F2104" t="s">
+        <v>865</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2104" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2105">
+        <v>1</v>
+      </c>
+      <c r="F2105" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2105" t="s">
         <v>30</v>
       </c>
-      <c r="H1999" s="4">
-        <v>44386</v>
-      </c>
-      <c r="I1999" t="s">
+      <c r="H2105" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I2105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2106">
+        <v>1</v>
+      </c>
+      <c r="F2106" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2106" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2107" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2107" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2107" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2107" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2108" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2108" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2108" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2108" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2109" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2109" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2109" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2110" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2110" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2110" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2111" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2111" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2111" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2112" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2112" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2112" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2113" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2113" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>895</v>
+      </c>
+      <c r="G2113" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2113" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2114" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2114" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2114" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2114" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2115" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2115" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2116" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2116" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2116" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2116" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2116" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2117" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2117" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2117" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2117" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2118" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2118" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2118" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2119" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2119" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2119" s="4">
+        <v>44392</v>
+      </c>
+      <c r="I2119" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="2120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2120" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2120" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2120" s="4">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2121" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2121" s="4">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2122">
+        <v>1</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2122" s="4">
+        <v>44396</v>
+      </c>
+      <c r="I2122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2123">
+        <v>1</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2123" s="4">
+        <v>44396</v>
+      </c>
+      <c r="I2123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2124">
+        <v>1</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2124" s="4">
+        <v>44396</v>
+      </c>
+      <c r="I2124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2125" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2125" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2125" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2125" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2126" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2126" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2126" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2126" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2126" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2127" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2127" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2127" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2128" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2128" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2128" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2128" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2128" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2129" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2129" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2129" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2130" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2130" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2130" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G2130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2130" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2131" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2131" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2131" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2132" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2132" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2132" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2132" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2133" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2133" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2133" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2133" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2133" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2134" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2134" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2134" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2134" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2134" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2135" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2135" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2135" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2135" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2135" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2136" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2136" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2136" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2136" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2136" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2137" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2137" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2137" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2137" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2137" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2137" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2138" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2138" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2138" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2138" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2139">
+        <v>1</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2139" s="4">
+        <v>44398</v>
+      </c>
+      <c r="I2139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2140">
+        <v>1</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2140" s="4">
+        <v>44398</v>
+      </c>
+      <c r="I2140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2141">
+        <v>1</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2141" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2142">
+        <v>1</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2142" s="4">
+        <v>44399</v>
+      </c>
+      <c r="I2142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2143">
+        <v>1</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2143" s="4">
+        <v>44399</v>
+      </c>
+      <c r="I2143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2144">
+        <v>1</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>916</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2144" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2145" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2145" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2145" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2145" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2145" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G2145" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2145" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2146">
+        <v>1</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2146" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2147">
+        <v>1</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2147" s="4">
+        <v>44400</v>
+      </c>
+      <c r="I2147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2148" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2148" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2148" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2148" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2148" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2148" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2149" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2149" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2149" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2149" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2149" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2150" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2150" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2150" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>880</v>
+      </c>
+      <c r="G2150" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2150" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2151" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2151" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2151" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2151" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2151" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2151" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2152" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2152" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2152" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2152" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2152" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2152" s="4">
+        <v>44403</v>
+      </c>
+      <c r="I2152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2153" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2153" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2153" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2153" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2153" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2153" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2154">
+        <v>1</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2154" s="4">
+        <v>44404</v>
+      </c>
+      <c r="I2154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2155">
+        <v>1</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2155" s="4">
+        <v>44404</v>
+      </c>
+      <c r="I2155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2156" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2156" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2156" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2156" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2156" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2157">
+        <v>1</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2157" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2158">
+        <v>1</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2158" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2159">
+        <v>1</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2159" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2160" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2160" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2160" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2160" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2160" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2160" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2161" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2161" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2161" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2161" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2161" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2162" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2162" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2162" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2162" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>895</v>
+      </c>
+      <c r="G2162" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2162" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2163" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2163" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2163" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2163" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2163" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2164">
+        <v>1</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>915</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2164" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2165">
+        <v>1</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2165" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2166">
+        <v>1</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2166" s="4">
+        <v>44406</v>
+      </c>
+      <c r="I2166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2167" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2167" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2167" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2167" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2167" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2167" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2168" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2168" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2168" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2168" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2168" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2168" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2169" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2169" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2169" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2169" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2169" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2169" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2170" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2170" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2170" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2170" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2170" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2170" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2171" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2171" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2171" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2171" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2171" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2171" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2172" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2172" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2172" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2172" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2172" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2173" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2173" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2173" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2173" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2173" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2173" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2174" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2174" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2174" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2174" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2174" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2175" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2175" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2175" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2175" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2175" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2175" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2176" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2176" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2176" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2176" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2176" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2176" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2177" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2177" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2177" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2177" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2177" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2177" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2178" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2178" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2178" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2178" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2178" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2178" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2179" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2179" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2179" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2179" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2179" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2180" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2180" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2180" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2180" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2180" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2180" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2181">
+        <v>1</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2181" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2182">
+        <v>2</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2182" s="4">
+        <v>44406</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1999" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1811">
-      <sortCondition ref="H1:H1811"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1977">
-    <sortCondition ref="H2:H1977"/>
-    <sortCondition ref="C2:C1977"/>
-    <sortCondition ref="D2:D1977"/>
+  <autoFilter ref="A1:J2182" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2182">
+    <sortCondition ref="H2:H2182"/>
+    <sortCondition ref="C2:C2182"/>
+    <sortCondition ref="D2:D2182"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58559,31 +63505,31 @@
           <x14:formula1>
             <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I300 I302:I1583 I1585:I1661 I1663:I1048576</xm:sqref>
+          <xm:sqref>I2:I300 I302:I1583 I1585:I1661 I1663:I2076 I2183:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A1048576</xm:sqref>
+          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A2076 A2183:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4764F04E-0C3B-462E-9979-614E31EB05C7}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G1048576</xm:sqref>
+          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G2076 G2183:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$51</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D552 D555:D1583 D1585:D1048576</xm:sqref>
+          <xm:sqref>D2:D552 D555:D1583 D1585:D2076 D2183:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$124</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C1048576</xm:sqref>
+          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C2076 C2183:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Wiesbaden First Pass Acceptance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9BE78-BFE9-4EA3-828E-0CC6FB4BE232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC07FC-9C30-4D2F-8FF1-CDA4BE900623}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$2196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$2514</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14788" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16256" uniqueCount="999">
   <si>
     <t>SQA</t>
   </si>
@@ -2870,6 +2870,168 @@
   </si>
   <si>
     <t>Outgoing - 10.01</t>
+  </si>
+  <si>
+    <t>Release 01.92.00</t>
+  </si>
+  <si>
+    <t>Release 01.91.01</t>
+  </si>
+  <si>
+    <t>WI_L34</t>
+  </si>
+  <si>
+    <t>WI_L31</t>
+  </si>
+  <si>
+    <t>NiceLabel</t>
+  </si>
+  <si>
+    <t>Result GER 42</t>
+  </si>
+  <si>
+    <t>Result GER 400</t>
+  </si>
+  <si>
+    <t>UT SCR PD-005402 – Batch IVDR Phase 3 (Implementation of Label Code) – Interface Change LSP to addONE</t>
+  </si>
+  <si>
+    <t>Result UT SCR PD-005402 – Batch IVDR Phase 3 (Implementation of Label Code) – Interface Change LSP to addONE</t>
+  </si>
+  <si>
+    <t>Unicorn 7.1 IIVP - Access Rights</t>
+  </si>
+  <si>
+    <t>Unicorn 7.1 IIVP - Remote License</t>
+  </si>
+  <si>
+    <t>UT PD-004435 Automatic Lot to Lot Assignments</t>
+  </si>
+  <si>
+    <t>UT PD-005508 Interface Global eIFU to LSP IF20</t>
+  </si>
+  <si>
+    <t>TP SCR PD-005402 – Batch IVDR Phase 3 (Implementation of Label Code) – Interface Change LSP to addONE</t>
+  </si>
+  <si>
+    <t>TP PD-004435 Automatic Lot to Lot Assignments</t>
+  </si>
+  <si>
+    <t>WI_L35</t>
+  </si>
+  <si>
+    <t>TP PD-005508 Interface Global eIFU to LSP IF20</t>
+  </si>
+  <si>
+    <t>Result UT PD-005508 Interface Global eIFU to LSP IF20</t>
+  </si>
+  <si>
+    <t>Result UT PD-004435 Automatic Lot to Lot Assignments</t>
+  </si>
+  <si>
+    <t>WI_C26</t>
+  </si>
+  <si>
+    <t>WI_C37</t>
+  </si>
+  <si>
+    <t>TP Check BOM Tables</t>
+  </si>
+  <si>
+    <t>WI_L36</t>
+  </si>
+  <si>
+    <t>Base - Executed</t>
+  </si>
+  <si>
+    <t>Incoming - Executed</t>
+  </si>
+  <si>
+    <t>Outgoing - Executed</t>
+  </si>
+  <si>
+    <t>WI_C 33</t>
+  </si>
+  <si>
+    <t>Release 01.60.00</t>
+  </si>
+  <si>
+    <t>SD-4</t>
+  </si>
+  <si>
+    <t>PD-4784</t>
+  </si>
+  <si>
+    <t>IL-SAP-1</t>
+  </si>
+  <si>
+    <t>BL-3</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>2019.3 Patch PowerForms</t>
+  </si>
+  <si>
+    <t>Run 147</t>
+  </si>
+  <si>
+    <t>Run 151</t>
+  </si>
+  <si>
+    <t>WI_L 33</t>
+  </si>
+  <si>
+    <t>WI_C 3</t>
+  </si>
+  <si>
+    <t>WI_C 6</t>
+  </si>
+  <si>
+    <t>WI_C 7</t>
+  </si>
+  <si>
+    <t>WI_C 8</t>
+  </si>
+  <si>
+    <t>WI_C 9</t>
+  </si>
+  <si>
+    <t>WI_C10</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>TP 100.1.4</t>
+  </si>
+  <si>
+    <t>TP 2.01</t>
+  </si>
+  <si>
+    <t>TP 4.02</t>
+  </si>
+  <si>
+    <t>TP 4.10</t>
+  </si>
+  <si>
+    <t>Release 1.1.1</t>
+  </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>Release 01.07.01</t>
+  </si>
+  <si>
+    <t>WI_C 40</t>
+  </si>
+  <si>
+    <t>WI_C 21</t>
   </si>
 </sst>
 </file>
@@ -2879,7 +3041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2901,6 +3063,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2916,7 +3084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2924,11 +3092,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2944,6 +3121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3260,9 +3441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3600,7 +3779,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>442</v>
+        <v>949</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -3608,7 +3787,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -3616,7 +3795,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>257</v>
@@ -3624,7 +3803,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>878</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -3632,7 +3811,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>758</v>
+        <v>878</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -3640,7 +3819,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>563</v>
+        <v>758</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -3648,7 +3827,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>88</v>
+        <v>563</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -3656,7 +3835,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -3664,7 +3843,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -3672,7 +3851,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>786</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -3680,7 +3859,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>786</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
@@ -3688,7 +3867,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>301</v>
@@ -3696,7 +3875,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
@@ -3704,7 +3883,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -3712,7 +3891,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -3720,29 +3899,32 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>884</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>884</v>
+      </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C61">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,11 +3934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J2280"/>
+  <dimension ref="A1:J2514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2281" sqref="A2281"/>
+      <pane ySplit="1" topLeftCell="A2473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2515" sqref="A2515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66216,12 +66398,6285 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2281" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2281">
+        <v>1</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>968</v>
+      </c>
+      <c r="G2281" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2281" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2282" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2282" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2282" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2282" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2282" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2282" s="4">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2283" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2283" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2283" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2283" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2283" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2283" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2283" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2284" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2284" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2284" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2284" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2284" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2284" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2284" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2285" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2285" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2285" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2285" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2285" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2285" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2286" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2286" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2286" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2286" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2286" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2286" s="4">
+        <v>44445</v>
+      </c>
+      <c r="I2286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2287" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2287" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2287" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2287" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="G2287" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2287" s="4">
+        <v>44446</v>
+      </c>
+      <c r="I2287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2288" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2288" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2288" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2288" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2288" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2288" s="4">
+        <v>44447</v>
+      </c>
+      <c r="I2288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2289" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2289" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2289" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2289" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="G2289" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2289" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2290" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2290" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2290" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2290" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2290" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2290" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2291" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2291" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2291" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2291" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2291" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2291" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2292" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2292" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2292" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2292" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2292" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2293" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2293" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2293" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2293" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2293" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2293" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2294" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2294" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2294" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2294" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2294" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2294" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2295" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2295" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2295" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2295" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2295" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2295" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2296" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2296" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2296" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2296" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2296" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2296" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2297" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2297">
+        <v>1</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>969</v>
+      </c>
+      <c r="G2297" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2297" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2298" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2298">
+        <v>1</v>
+      </c>
+      <c r="F2298" t="s">
+        <v>970</v>
+      </c>
+      <c r="G2298" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2298" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2299" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2299" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2299" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2299" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2299" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2299" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2300" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2300" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2300" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2300" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2300" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2300" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2301" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2301" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2301" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2301" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2301" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2301" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2302" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2302" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2302" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2302" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="G2302" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2302" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2303" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2303" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2303" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2303" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2303" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2303" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2304" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2304" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2304" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2304" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2304" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2305" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2305" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2305" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2305" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2305" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2305" s="4">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2306" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2306" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2306" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2306" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2306" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2306" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2307" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2307" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2307" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2307" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2307" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2307" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2308" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2308" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2308" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2308" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2308" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2308" s="4">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2309" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2309" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2309" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2309" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2309" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2309" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2309" s="4">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2310" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2310" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2310" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2310" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2310" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2310" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2310" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2310" s="4">
+        <v>44448</v>
+      </c>
+      <c r="I2310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2311" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2311" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2311" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2311" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2311" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2311" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2311" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2311" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2312" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2312" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2312" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2312" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="G2312" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2312" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2313" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2313" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2313" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2313" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2313" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2313" s="4">
+        <v>44454</v>
+      </c>
+      <c r="I2313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2314" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2314" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2314" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2314" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2314" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2314" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2315" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2315" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2315" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2315" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2315" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2315" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2315" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2315" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2316" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2316" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2316" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2316" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2316" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2316" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2316" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2316" s="4">
+        <v>44448</v>
+      </c>
+      <c r="I2316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2317" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2317" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2317" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2317" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2317" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2317" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2317" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2317" s="4">
+        <v>44448</v>
+      </c>
+      <c r="I2317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2318" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2318" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2318" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2318" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="G2318" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2318" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2319" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2319">
+        <v>2</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2319" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2319" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2320" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2320" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2320" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2320" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="G2320" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2320" s="4">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2321" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2321" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2321" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2321" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G2321" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2321" s="4">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2322" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2322" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2322" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2322" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2322" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2322" s="4">
+        <v>44455</v>
+      </c>
+      <c r="I2322" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2323" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2323" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2323" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2323" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2323" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2323" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2323" s="4">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2324" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2324" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2324" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2324" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2324" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2324" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2324" s="4">
+        <v>44456</v>
+      </c>
+      <c r="I2324" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2325" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2325" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2325" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2325" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2325" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2325" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2325" s="4">
+        <v>44456</v>
+      </c>
+      <c r="I2325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2326" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2326" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2326" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2326" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2326" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2326" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2327" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2327" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2327" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2327" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2327" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2327" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2328" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2328" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2328" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2328" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2328" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2328" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2328" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2329" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2329" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2329" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2329" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2329" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2329" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2329" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2330" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2330">
+        <v>1</v>
+      </c>
+      <c r="F2330" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2330" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2330" s="4">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2331" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2331">
+        <v>1</v>
+      </c>
+      <c r="F2331" t="s">
+        <v>744</v>
+      </c>
+      <c r="G2331" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2331" s="4">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2332" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2332">
+        <v>1</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2332" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2332" s="4">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2333" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2333" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2333" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2333" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="G2333" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2333" s="4">
+        <v>44461</v>
+      </c>
+      <c r="I2333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2334" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2334" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2334" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2334" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2334" s="4">
+        <v>44459</v>
+      </c>
+      <c r="I2334" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2335" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2335" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2335" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2335" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2335" t="s">
+        <v>954</v>
+      </c>
+      <c r="G2335" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2335" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2336" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2336" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2336" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2336" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2336" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2336" t="s">
+        <v>955</v>
+      </c>
+      <c r="G2336" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2336" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2337" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2337" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2337" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2337" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2337" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2337" t="s">
+        <v>955</v>
+      </c>
+      <c r="G2337" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2337" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2338" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2338">
+        <v>1</v>
+      </c>
+      <c r="F2338" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2338" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2338" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2339" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2339">
+        <v>1</v>
+      </c>
+      <c r="F2339" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2339" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2339" s="4">
+        <v>44442</v>
+      </c>
+      <c r="I2339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2340" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2340" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2340" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2340" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2340" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2340" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2340" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2340" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2341" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2341" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2341" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2341" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2341" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2341" s="4">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2342" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2342">
+        <v>1</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2342" s="4">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2343" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2343">
+        <v>1</v>
+      </c>
+      <c r="F2343" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2343" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2343" s="4">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2344" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2344" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2344" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2344" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="G2344" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2344" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2345" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2345" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2345" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2345" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G2345" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2345" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2346" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2346">
+        <v>1</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2346" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2346" s="4">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2347" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2347">
+        <v>1</v>
+      </c>
+      <c r="F2347" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2347" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2347" s="4">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2348" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2348">
+        <v>1</v>
+      </c>
+      <c r="F2348" t="s">
+        <v>973</v>
+      </c>
+      <c r="G2348" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2348" s="4">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2349" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2349">
+        <v>2</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2349" s="4">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2350" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2350">
+        <v>1</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2350" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2350" s="4">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2351" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2351">
+        <v>1</v>
+      </c>
+      <c r="F2351" t="s">
+        <v>974</v>
+      </c>
+      <c r="G2351" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2351" s="4">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2352" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2352" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2352" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2352" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2352" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2352" t="s">
+        <v>954</v>
+      </c>
+      <c r="G2352" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2352" s="4">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2353" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2353">
+        <v>2</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>975</v>
+      </c>
+      <c r="G2353" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2353" s="4">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2354" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2354" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2354" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2354" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="G2354" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2354" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2355" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2355" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2355" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2355" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="G2355" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2355" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2356" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2356">
+        <v>2</v>
+      </c>
+      <c r="F2356" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2356" s="4">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2357" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2357" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2357" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2357" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2357" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2357" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2357" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2357" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2358" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2358">
+        <v>1</v>
+      </c>
+      <c r="F2358" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2358" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2358" s="4">
+        <v>44446</v>
+      </c>
+      <c r="I2358" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2359" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2359">
+        <v>1</v>
+      </c>
+      <c r="F2359" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2359" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2359" s="4">
+        <v>44447</v>
+      </c>
+      <c r="I2359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2360" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2360">
+        <v>1</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2360" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2360" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2361" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2361">
+        <v>1</v>
+      </c>
+      <c r="F2361" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2361" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2361" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2362" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2362">
+        <v>1</v>
+      </c>
+      <c r="F2362" t="s">
+        <v>941</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2362" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2363" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2363">
+        <v>1</v>
+      </c>
+      <c r="F2363" t="s">
+        <v>942</v>
+      </c>
+      <c r="G2363" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2363" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2364" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2364">
+        <v>1</v>
+      </c>
+      <c r="F2364" t="s">
+        <v>943</v>
+      </c>
+      <c r="G2364" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2364" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2365" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2365">
+        <v>1</v>
+      </c>
+      <c r="F2365" t="s">
+        <v>944</v>
+      </c>
+      <c r="G2365" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2365" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2366" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2366">
+        <v>1</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>939</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2366" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2367" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2367">
+        <v>1</v>
+      </c>
+      <c r="F2367" t="s">
+        <v>940</v>
+      </c>
+      <c r="G2367" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2367" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2368" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2368">
+        <v>1</v>
+      </c>
+      <c r="F2368" t="s">
+        <v>982</v>
+      </c>
+      <c r="G2368" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2368" s="4">
+        <v>44447</v>
+      </c>
+      <c r="I2368" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2369" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2369">
+        <v>1</v>
+      </c>
+      <c r="F2369" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2369" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2369" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2370" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2370">
+        <v>1</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2370" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2370" s="4">
+        <v>44447</v>
+      </c>
+      <c r="I2370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2371" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2371">
+        <v>1</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2371" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2371" s="4">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2372" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2372">
+        <v>1</v>
+      </c>
+      <c r="F2372" t="s">
+        <v>977</v>
+      </c>
+      <c r="G2372" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2372" s="4">
+        <v>44447</v>
+      </c>
+      <c r="I2372" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2373" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2373">
+        <v>1</v>
+      </c>
+      <c r="F2373" t="s">
+        <v>978</v>
+      </c>
+      <c r="G2373" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2373" s="4">
+        <v>44447</v>
+      </c>
+      <c r="I2373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2374" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2374">
+        <v>1</v>
+      </c>
+      <c r="F2374" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2374" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2374" s="4">
+        <v>44448</v>
+      </c>
+      <c r="I2374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2375" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2375">
+        <v>1</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2375" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2375" s="4">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2376" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>949</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2376">
+        <v>1</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2376" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2376" s="4">
+        <v>44448</v>
+      </c>
+      <c r="I2376" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2377" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2377">
+        <v>1</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2377" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2377" s="4">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2378" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2378">
+        <v>1</v>
+      </c>
+      <c r="F2378" t="s">
+        <v>983</v>
+      </c>
+      <c r="G2378" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2378" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2379" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2379">
+        <v>1</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>984</v>
+      </c>
+      <c r="G2379" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2379" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2380" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2380">
+        <v>1</v>
+      </c>
+      <c r="F2380" t="s">
+        <v>985</v>
+      </c>
+      <c r="G2380" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2380" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2381" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2381">
+        <v>1</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2381" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2381" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2382" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2382">
+        <v>1</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2382" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2382" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2383" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2383">
+        <v>1</v>
+      </c>
+      <c r="F2383" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2383" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2383" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2384" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2384">
+        <v>1</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2384" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2384" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2385" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2385">
+        <v>1</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>982</v>
+      </c>
+      <c r="G2385" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2385" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2386" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2386">
+        <v>1</v>
+      </c>
+      <c r="F2386" t="s">
+        <v>928</v>
+      </c>
+      <c r="G2386" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2386" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2387" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2387">
+        <v>1</v>
+      </c>
+      <c r="F2387" t="s">
+        <v>929</v>
+      </c>
+      <c r="G2387" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2387" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2388" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2388" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2388" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2388" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2388" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2388" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2388" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>949</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2389">
+        <v>1</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2389" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2389" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2390" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>949</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2390">
+        <v>1</v>
+      </c>
+      <c r="F2390" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2390" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2390" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2391" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2391">
+        <v>1</v>
+      </c>
+      <c r="F2391" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2391" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2391" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2392" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2392">
+        <v>1</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2392" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2392" s="4">
+        <v>44449</v>
+      </c>
+      <c r="I2392" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2393" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2393">
+        <v>1</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2393" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2394" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2394">
+        <v>1</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2394" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2394" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2395" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2395">
+        <v>1</v>
+      </c>
+      <c r="F2395" t="s">
+        <v>938</v>
+      </c>
+      <c r="G2395" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2395" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2396" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2396">
+        <v>1</v>
+      </c>
+      <c r="F2396" t="s">
+        <v>938</v>
+      </c>
+      <c r="G2396" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2396" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2397" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2397">
+        <v>1</v>
+      </c>
+      <c r="F2397" t="s">
+        <v>983</v>
+      </c>
+      <c r="G2397" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2397" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2398" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2398">
+        <v>1</v>
+      </c>
+      <c r="F2398" t="s">
+        <v>984</v>
+      </c>
+      <c r="G2398" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2398" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2399" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2399">
+        <v>1</v>
+      </c>
+      <c r="F2399" t="s">
+        <v>985</v>
+      </c>
+      <c r="G2399" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2399" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2400" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2400">
+        <v>1</v>
+      </c>
+      <c r="F2400" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2400" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2400" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2401" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2401">
+        <v>1</v>
+      </c>
+      <c r="F2401" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2401" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2401" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2402" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2402">
+        <v>1</v>
+      </c>
+      <c r="F2402" t="s">
+        <v>988</v>
+      </c>
+      <c r="G2402" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2402" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2403" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2403">
+        <v>1</v>
+      </c>
+      <c r="F2403" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2403" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2403" s="4">
+        <v>44452</v>
+      </c>
+      <c r="I2403" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2404" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2404" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2404" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2404" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2404" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2404" s="4">
+        <v>44452</v>
+      </c>
+      <c r="I2404" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2405" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2405">
+        <v>1</v>
+      </c>
+      <c r="F2405" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2405" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2405" s="4">
+        <v>44453</v>
+      </c>
+      <c r="I2405" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2406" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2406">
+        <v>1</v>
+      </c>
+      <c r="F2406" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2406" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2406" s="4">
+        <v>44453</v>
+      </c>
+      <c r="I2406" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2407" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2407">
+        <v>1</v>
+      </c>
+      <c r="F2407" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2407" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2407" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2408" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2408">
+        <v>1</v>
+      </c>
+      <c r="F2408" t="s">
+        <v>933</v>
+      </c>
+      <c r="G2408" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2408" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2409" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2409">
+        <v>1</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>934</v>
+      </c>
+      <c r="G2409" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2409" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2410" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2410">
+        <v>1</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2410" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2410" s="4">
+        <v>44453</v>
+      </c>
+      <c r="I2410" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2411" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2411">
+        <v>1</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2411" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2411" s="4">
+        <v>44453</v>
+      </c>
+      <c r="I2411" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2412" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2412">
+        <v>1</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2412" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2413" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2413">
+        <v>1</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2413" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2413" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2414" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2414">
+        <v>1</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2414" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2414" s="4">
+        <v>44453</v>
+      </c>
+      <c r="I2414" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2415" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2415">
+        <v>1</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>989</v>
+      </c>
+      <c r="G2415" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2415" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2416" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2416">
+        <v>1</v>
+      </c>
+      <c r="F2416" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2416" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2416" s="4">
+        <v>44453</v>
+      </c>
+      <c r="I2416" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2417" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2417" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2417" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2417" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="G2417" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2417" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2418" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2418" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2418" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2418" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="G2418" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2418" s="4">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2419" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2419">
+        <v>1</v>
+      </c>
+      <c r="F2419" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2419" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2419" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2420" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2420">
+        <v>1</v>
+      </c>
+      <c r="F2420" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2420" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2420" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2421" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2421">
+        <v>1</v>
+      </c>
+      <c r="F2421" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2421" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2421" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2422" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2422">
+        <v>1</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2422" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2422" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2423" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2423">
+        <v>1</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>990</v>
+      </c>
+      <c r="G2423" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2423" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2424" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2424">
+        <v>1</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>991</v>
+      </c>
+      <c r="G2424" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2424" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2425" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2425">
+        <v>1</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2425" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2425" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2426" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2426">
+        <v>1</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>993</v>
+      </c>
+      <c r="G2426" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2426" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2427" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2427">
+        <v>1</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2427" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2427" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2428" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2428">
+        <v>1</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2428" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2428" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2429" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2429">
+        <v>1</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2429" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2429" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2430" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2430">
+        <v>1</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2430" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2430" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2431" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2431">
+        <v>1</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2431" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2431" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2432" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2432">
+        <v>1</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2432" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2432" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2433" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2433">
+        <v>1</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2433" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2433" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2434" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2434">
+        <v>1</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>982</v>
+      </c>
+      <c r="G2434" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2434" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2435" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2435">
+        <v>1</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>928</v>
+      </c>
+      <c r="G2435" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2435" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2436" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2436">
+        <v>1</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2436" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2436" s="4">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2437" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2437">
+        <v>1</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2437" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2437" s="4">
+        <v>44455</v>
+      </c>
+      <c r="I2437" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2438" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2438">
+        <v>1</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2438" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2438" s="4">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2439" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2439">
+        <v>1</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2439" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2439" s="4">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2440" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2440">
+        <v>1</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2440" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2440" s="4">
+        <v>44455</v>
+      </c>
+      <c r="I2440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2441" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2441">
+        <v>1</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>969</v>
+      </c>
+      <c r="G2441" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2441" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2442" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2442">
+        <v>1</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>970</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2442" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2443" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2443">
+        <v>1</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2443" s="4">
+        <v>44456</v>
+      </c>
+      <c r="I2443" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2444" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2444">
+        <v>1</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2444" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2444" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2445" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2445">
+        <v>1</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2445" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2445" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2446" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2446">
+        <v>1</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2446" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2446" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2447" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>994</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2447">
+        <v>1</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2447" s="4">
+        <v>44456</v>
+      </c>
+      <c r="I2447" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2448" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2448" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2448" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2448" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="G2448" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2448" s="4">
+        <v>44456</v>
+      </c>
+      <c r="I2448" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2449" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2449" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2449" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2449" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="G2449" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2449" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2450" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2450">
+        <v>1</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2450" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2450" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2451" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2451">
+        <v>1</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2451" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2451" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2452" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2452">
+        <v>1</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2452" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2452" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2453" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2453">
+        <v>1</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2453" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2453" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2454" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2454">
+        <v>1</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2454" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2454" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2455" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2455">
+        <v>1</v>
+      </c>
+      <c r="F2455" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2455" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2455" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2456" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2456">
+        <v>1</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>990</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2456" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2457" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2457">
+        <v>1</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>991</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2457" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2458" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2458">
+        <v>1</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2458" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2459" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2459">
+        <v>1</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>993</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2459" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2460" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2460">
+        <v>1</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2460" s="4">
+        <v>44459</v>
+      </c>
+      <c r="I2460" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2461" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2461">
+        <v>1</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2461" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2462" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2462">
+        <v>1</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2462" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2463" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2463">
+        <v>1</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2463" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2464" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2464">
+        <v>1</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2464" s="4">
+        <v>44459</v>
+      </c>
+      <c r="I2464" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2465" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2465">
+        <v>1</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2465" s="4">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2466" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2466">
+        <v>1</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2466" s="4">
+        <v>44459</v>
+      </c>
+      <c r="I2466" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2467" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2467">
+        <v>1</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2467" s="4">
+        <v>44459</v>
+      </c>
+      <c r="I2467" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2468" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2468">
+        <v>1</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2468" s="4">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2469" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2469">
+        <v>1</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2469" s="4">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2470" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2470">
+        <v>1</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2470" s="4">
+        <v>44460</v>
+      </c>
+      <c r="I2470" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2471" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2471">
+        <v>1</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2471" s="4">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2472" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2472">
+        <v>1</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2472" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2473" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2473">
+        <v>1</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2473" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2474" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2474">
+        <v>1</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2474" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2475" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2475">
+        <v>1</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2475" s="4">
+        <v>44461</v>
+      </c>
+      <c r="I2475" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2476" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2476">
+        <v>1</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2476" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2477" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2477">
+        <v>1</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2477" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2478" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2478">
+        <v>1</v>
+      </c>
+      <c r="F2478" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2478" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2479" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2479">
+        <v>1</v>
+      </c>
+      <c r="F2479" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2479" s="4">
+        <v>44461</v>
+      </c>
+      <c r="I2479" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2480" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2480">
+        <v>1</v>
+      </c>
+      <c r="F2480" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2480" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2481" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2481">
+        <v>1</v>
+      </c>
+      <c r="F2481" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2481" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2482" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2482">
+        <v>1</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2482" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2483" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2483">
+        <v>1</v>
+      </c>
+      <c r="F2483" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2483" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2484" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2484">
+        <v>1</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2484" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2485" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2485">
+        <v>1</v>
+      </c>
+      <c r="F2485" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2485" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2486" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2486">
+        <v>1</v>
+      </c>
+      <c r="F2486" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2486" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2487" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2487">
+        <v>1</v>
+      </c>
+      <c r="F2487" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2487" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2488" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2488">
+        <v>1</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2488" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2489" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>996</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2489">
+        <v>1</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2489" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2490" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2490">
+        <v>1</v>
+      </c>
+      <c r="F2490" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2490" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2491" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2491">
+        <v>1</v>
+      </c>
+      <c r="F2491" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2491" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2492" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2492">
+        <v>1</v>
+      </c>
+      <c r="F2492" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2492" s="4">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2493" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2493" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2493" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>957</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2493" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2494" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2494" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2494" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2494" t="s">
+        <v>956</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2494" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2495" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2495" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2495" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>958</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2495" s="4">
+        <v>44463</v>
+      </c>
+      <c r="I2495" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2496" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2496" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2496" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>959</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2496" s="4">
+        <v>44463</v>
+      </c>
+      <c r="I2496" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2497" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2497" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2497" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>958</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2497" s="4">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2498" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2498" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2498" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2498" s="4">
+        <v>44463</v>
+      </c>
+      <c r="I2498" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2499" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2499">
+        <v>1</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>998</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2499" s="4">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2500" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2500">
+        <v>1</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>929</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2500" s="4">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2501" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2501" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2501" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2501" s="4">
+        <v>44466</v>
+      </c>
+      <c r="I2501" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2502" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2502" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2502" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2502" s="4">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2503" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2503" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2503" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>963</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2503" s="4">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2504" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2504" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2504" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2504" s="4">
+        <v>44467</v>
+      </c>
+      <c r="I2504" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2505" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2505" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2505" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>959</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2505" s="4">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2506" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2506" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2506" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2506" s="4">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2507" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2507" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2507" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2507" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2507" s="4">
+        <v>44467</v>
+      </c>
+      <c r="I2507" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2508" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2508" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2508" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2508" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="G2508" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2508" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2509" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2509" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2509" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2509" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2509" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2510" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2510" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2510" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2510" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2510" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2511" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2511" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2511" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2511" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2511" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2512" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2512" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2512" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2512" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="G2512" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2512" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2513" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2513" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2513" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2513" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2513" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2513" s="4">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2514" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2514" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2514" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2514" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2514" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2514" s="4">
+        <v>44468</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J2196" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2280">
-    <sortCondition ref="H2:H2280"/>
-    <sortCondition ref="C2:C2280"/>
-    <sortCondition ref="D2:D2280"/>
+  <autoFilter ref="A1:J2514" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2281:J2514">
+    <sortCondition ref="H2:H2514"/>
+    <sortCondition ref="C2:C2514"/>
+    <sortCondition ref="D2:D2514"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66255,7 +72710,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
-            <xm:f>Config!$B$2:$B$124</xm:f>
+            <xm:f>Config!$B$2:$B$125</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
